--- a/legendre_out/CSV/analytically/a1/a0/a0Fit.xlsx
+++ b/legendre_out/CSV/analytically/a1/a0/a0Fit.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B229"/>
+  <dimension ref="A1:F229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -372,13 +372,45 @@
           <t>a0</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>a0_err</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Chi2</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Pval</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Chi2NDF</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>3.99602</v>
       </c>
       <c r="B2" t="n">
-        <v>3.15764874782085e-05</v>
+        <v>3.79966125155982e-05</v>
+      </c>
+      <c r="C2" t="n">
+        <v>8.571906681534184e-07</v>
+      </c>
+      <c r="D2" t="n">
+        <v>246.0940335545313</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>41.01567225908855</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +418,19 @@
         <v>4.00097</v>
       </c>
       <c r="B3" t="n">
-        <v>2.972166019387838e-05</v>
+        <v>3.53818859131023e-05</v>
+      </c>
+      <c r="C3" t="n">
+        <v>8.704758837047409e-07</v>
+      </c>
+      <c r="D3" t="n">
+        <v>232.6327686207024</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>38.77212810345039</v>
       </c>
     </row>
     <row r="4">
@@ -394,7 +438,19 @@
         <v>4.00294</v>
       </c>
       <c r="B4" t="n">
-        <v>3.07985394384682e-05</v>
+        <v>3.465672607526836e-05</v>
+      </c>
+      <c r="C4" t="n">
+        <v>8.615480959745745e-07</v>
+      </c>
+      <c r="D4" t="n">
+        <v>162.8020996055724</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>27.1336832675954</v>
       </c>
     </row>
     <row r="5">
@@ -402,7 +458,19 @@
         <v>4.00497</v>
       </c>
       <c r="B5" t="n">
-        <v>2.793999624372045e-05</v>
+        <v>3.283855283490843e-05</v>
+      </c>
+      <c r="C5" t="n">
+        <v>8.57308865893898e-07</v>
+      </c>
+      <c r="D5" t="n">
+        <v>206.2467146728396</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>34.37445244547327</v>
       </c>
     </row>
     <row r="6">
@@ -410,7 +478,19 @@
         <v>4.00697</v>
       </c>
       <c r="B6" t="n">
-        <v>2.72965776036807e-05</v>
+        <v>3.175646226583599e-05</v>
+      </c>
+      <c r="C6" t="n">
+        <v>8.283042504310643e-07</v>
+      </c>
+      <c r="D6" t="n">
+        <v>195.9487133195296</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>32.65811888658826</v>
       </c>
     </row>
     <row r="7">
@@ -418,7 +498,19 @@
         <v>4.00909</v>
       </c>
       <c r="B7" t="n">
-        <v>2.885106078773413e-05</v>
+        <v>3.236829623374412e-05</v>
+      </c>
+      <c r="C7" t="n">
+        <v>8.946004568787923e-07</v>
+      </c>
+      <c r="D7" t="n">
+        <v>162.6084770015788</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>27.10141283359647</v>
       </c>
     </row>
     <row r="8">
@@ -426,7 +518,19 @@
         <v>4.01003</v>
       </c>
       <c r="B8" t="n">
-        <v>2.761602937027944e-05</v>
+        <v>3.156316358898336e-05</v>
+      </c>
+      <c r="C8" t="n">
+        <v>8.900848174388258e-07</v>
+      </c>
+      <c r="D8" t="n">
+        <v>171.9675813693353</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>28.66126356155588</v>
       </c>
     </row>
     <row r="9">
@@ -434,7 +538,19 @@
         <v>4.01507</v>
       </c>
       <c r="B9" t="n">
-        <v>2.773298110045102e-05</v>
+        <v>3.092831728542348e-05</v>
+      </c>
+      <c r="C9" t="n">
+        <v>8.043406347057458e-07</v>
+      </c>
+      <c r="D9" t="n">
+        <v>159.8059783173473</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>26.63432971955788</v>
       </c>
     </row>
     <row r="10">
@@ -442,7 +558,19 @@
         <v>4.01911</v>
       </c>
       <c r="B10" t="n">
-        <v>2.338100250750861e-05</v>
+        <v>2.665108070860205e-05</v>
+      </c>
+      <c r="C10" t="n">
+        <v>7.070507474144443e-07</v>
+      </c>
+      <c r="D10" t="n">
+        <v>175.2069236000058</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>29.2011539333343</v>
       </c>
     </row>
     <row r="11">
@@ -450,7 +578,19 @@
         <v>4.01992</v>
       </c>
       <c r="B11" t="n">
-        <v>2.230707590641424e-05</v>
+        <v>2.391205715121111e-05</v>
+      </c>
+      <c r="C11" t="n">
+        <v>6.957066801714137e-07</v>
+      </c>
+      <c r="D11" t="n">
+        <v>103.1470406940925</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>17.19117344901542</v>
       </c>
     </row>
     <row r="12">
@@ -458,7 +598,19 @@
         <v>4.02504</v>
       </c>
       <c r="B12" t="n">
-        <v>1.539787958050325e-05</v>
+        <v>1.639893637478837e-05</v>
+      </c>
+      <c r="C12" t="n">
+        <v>5.691444482929402e-07</v>
+      </c>
+      <c r="D12" t="n">
+        <v>75.31951974454304</v>
+      </c>
+      <c r="E12" t="n">
+        <v>3.297362383136715e-14</v>
+      </c>
+      <c r="F12" t="n">
+        <v>12.55325329075717</v>
       </c>
     </row>
     <row r="13">
@@ -466,7 +618,19 @@
         <v>4.02998</v>
       </c>
       <c r="B13" t="n">
-        <v>9.642155380234651e-06</v>
+        <v>1.022907465971311e-05</v>
+      </c>
+      <c r="C13" t="n">
+        <v>4.072161340048993e-07</v>
+      </c>
+      <c r="D13" t="n">
+        <v>80.14427539418131</v>
+      </c>
+      <c r="E13" t="n">
+        <v>3.33066907387547e-15</v>
+      </c>
+      <c r="F13" t="n">
+        <v>13.35737923236355</v>
       </c>
     </row>
     <row r="14">
@@ -474,7 +638,19 @@
         <v>4.03514</v>
       </c>
       <c r="B14" t="n">
-        <v>6.167279318154844e-06</v>
+        <v>7.089431739939996e-06</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3.24359359196635e-07</v>
+      </c>
+      <c r="D14" t="n">
+        <v>85.54207397182176</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2.220446049250313e-16</v>
+      </c>
+      <c r="F14" t="n">
+        <v>14.25701232863696</v>
       </c>
     </row>
     <row r="15">
@@ -482,7 +658,19 @@
         <v>4.26996</v>
       </c>
       <c r="B15" t="n">
-        <v>2.678447600528766e-05</v>
+        <v>2.957358958267898e-05</v>
+      </c>
+      <c r="C15" t="n">
+        <v>7.267477272782386e-07</v>
+      </c>
+      <c r="D15" t="n">
+        <v>150.1480553416547</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>25.02467589027579</v>
       </c>
     </row>
     <row r="16">
@@ -490,7 +678,19 @@
         <v>4.29005</v>
       </c>
       <c r="B16" t="n">
-        <v>4.223663994159033e-05</v>
+        <v>4.86503568669165e-05</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.110376062123878e-06</v>
+      </c>
+      <c r="D16" t="n">
+        <v>175.8548979440586</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>29.3091496573431</v>
       </c>
     </row>
     <row r="17">
@@ -498,7 +698,19 @@
         <v>4.291119999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>5.889372414975609e-05</v>
+        <v>6.744077056997823e-05</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.52715912548642e-06</v>
+      </c>
+      <c r="D17" t="n">
+        <v>171.4358563021536</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>28.5726427170256</v>
       </c>
     </row>
     <row r="18">
@@ -506,7 +718,19 @@
         <v>4.29319</v>
       </c>
       <c r="B18" t="n">
-        <v>5.615169834183435e-05</v>
+        <v>6.372116356980852e-05</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.454209515129102e-06</v>
+      </c>
+      <c r="D18" t="n">
+        <v>157.6472975060266</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>26.27454958433776</v>
       </c>
     </row>
     <row r="19">
@@ -514,7 +738,19 @@
         <v>4.2942</v>
       </c>
       <c r="B19" t="n">
-        <v>5.336522331927909e-05</v>
+        <v>6.247427985724893e-05</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1.477580519456824e-06</v>
+      </c>
+      <c r="D19" t="n">
+        <v>196.9590303316182</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>32.8265050552697</v>
       </c>
     </row>
     <row r="20">
@@ -522,7 +758,19 @@
         <v>4.29515</v>
       </c>
       <c r="B20" t="n">
-        <v>5.550541280824018e-05</v>
+        <v>6.290807328400659e-05</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.509658528532614e-06</v>
+      </c>
+      <c r="D20" t="n">
+        <v>172.5609547022166</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>28.7601591170361</v>
       </c>
     </row>
     <row r="21">
@@ -530,7 +778,19 @@
         <v>4.29615</v>
       </c>
       <c r="B21" t="n">
-        <v>5.456863337731513e-05</v>
+        <v>6.271944491539497e-05</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.555730545355985e-06</v>
+      </c>
+      <c r="D21" t="n">
+        <v>181.5533607659313</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>30.25889346098855</v>
       </c>
     </row>
     <row r="22">
@@ -538,7 +798,19 @@
         <v>4.297219999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>5.916484589786598e-05</v>
+        <v>6.638284009605236e-05</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.72693322555698e-06</v>
+      </c>
+      <c r="D22" t="n">
+        <v>182.268795299653</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>30.37813254994218</v>
       </c>
     </row>
     <row r="23">
@@ -546,7 +818,19 @@
         <v>4.298080000000001</v>
       </c>
       <c r="B23" t="n">
-        <v>5.951764910411741e-05</v>
+        <v>7.399570005500316e-05</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2.514382022685141e-06</v>
+      </c>
+      <c r="D23" t="n">
+        <v>271.793874563765</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>45.29897909396084</v>
       </c>
     </row>
     <row r="24">
@@ -554,7 +838,19 @@
         <v>4.299090000000001</v>
       </c>
       <c r="B24" t="n">
-        <v>6.738975845302788e-05</v>
+        <v>8.294378558142343e-05</v>
+      </c>
+      <c r="C24" t="n">
+        <v>3.143831513987489e-06</v>
+      </c>
+      <c r="D24" t="n">
+        <v>255.8345376583388</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>42.63908960972314</v>
       </c>
     </row>
     <row r="25">
@@ -562,7 +858,19 @@
         <v>4.30105</v>
       </c>
       <c r="B25" t="n">
-        <v>5.611262723875262e-05</v>
+        <v>8.249764986745434e-05</v>
+      </c>
+      <c r="C25" t="n">
+        <v>3.683678013256255e-06</v>
+      </c>
+      <c r="D25" t="n">
+        <v>351.8745030213106</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>58.64575050355177</v>
       </c>
     </row>
     <row r="26">
@@ -570,7 +878,19 @@
         <v>4.3031</v>
       </c>
       <c r="B26" t="n">
-        <v>6.278061101619519e-05</v>
+        <v>8.634333612076394e-05</v>
+      </c>
+      <c r="C26" t="n">
+        <v>3.527166021753992e-06</v>
+      </c>
+      <c r="D26" t="n">
+        <v>368.9111964856281</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>61.48519941427134</v>
       </c>
     </row>
     <row r="27">
@@ -578,7 +898,19 @@
         <v>4.30523</v>
       </c>
       <c r="B27" t="n">
-        <v>5.535973298501433e-05</v>
+        <v>7.975068389210016e-05</v>
+      </c>
+      <c r="C27" t="n">
+        <v>3.53101472145147e-06</v>
+      </c>
+      <c r="D27" t="n">
+        <v>354.1495713714795</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>59.02492856191324</v>
       </c>
     </row>
     <row r="28">
@@ -586,7 +918,19 @@
         <v>4.30725</v>
       </c>
       <c r="B28" t="n">
-        <v>6.347030202127451e-05</v>
+        <v>8.563043419858294e-05</v>
+      </c>
+      <c r="C28" t="n">
+        <v>3.836796568645413e-06</v>
+      </c>
+      <c r="D28" t="n">
+        <v>301.5084954054804</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>50.2514159009134</v>
       </c>
     </row>
     <row r="29">
@@ -594,7 +938,19 @@
         <v>4.3093</v>
       </c>
       <c r="B29" t="n">
-        <v>6.095657539021068e-05</v>
+        <v>8.289321911604057e-05</v>
+      </c>
+      <c r="C29" t="n">
+        <v>3.650287629875458e-06</v>
+      </c>
+      <c r="D29" t="n">
+        <v>283.2739083443175</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>47.21231805738625</v>
       </c>
     </row>
     <row r="30">
@@ -602,7 +958,19 @@
         <v>4.30996</v>
       </c>
       <c r="B30" t="n">
-        <v>5.980484327055378e-05</v>
+        <v>8.024459566521065e-05</v>
+      </c>
+      <c r="C30" t="n">
+        <v>3.358866760524241e-06</v>
+      </c>
+      <c r="D30" t="n">
+        <v>330.3647117159312</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>55.06078528598852</v>
       </c>
     </row>
     <row r="31">
@@ -610,7 +978,19 @@
         <v>4.31117</v>
       </c>
       <c r="B31" t="n">
-        <v>5.760528388321656e-05</v>
+        <v>7.853198228532095e-05</v>
+      </c>
+      <c r="C31" t="n">
+        <v>3.347041472441322e-06</v>
+      </c>
+      <c r="D31" t="n">
+        <v>310.2989901682101</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>51.71649836136834</v>
       </c>
     </row>
     <row r="32">
@@ -618,7 +998,19 @@
         <v>4.31311</v>
       </c>
       <c r="B32" t="n">
-        <v>3.8462703483045e-05</v>
+        <v>6.017804881704685e-05</v>
+      </c>
+      <c r="C32" t="n">
+        <v>2.999504091285726e-06</v>
+      </c>
+      <c r="D32" t="n">
+        <v>367.1043899776935</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>61.18406499628225</v>
       </c>
     </row>
     <row r="33">
@@ -626,7 +1018,19 @@
         <v>4.31513</v>
       </c>
       <c r="B33" t="n">
-        <v>4.151854001471706e-05</v>
+        <v>6.153999540112411e-05</v>
+      </c>
+      <c r="C33" t="n">
+        <v>3.090504254533194e-06</v>
+      </c>
+      <c r="D33" t="n">
+        <v>317.211433273987</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>52.86857221233117</v>
       </c>
     </row>
     <row r="34">
@@ -634,7 +1038,19 @@
         <v>4.3172</v>
       </c>
       <c r="B34" t="n">
-        <v>3.0156574558905e-05</v>
+        <v>5.042308440696216e-05</v>
+      </c>
+      <c r="C34" t="n">
+        <v>2.72032719216918e-06</v>
+      </c>
+      <c r="D34" t="n">
+        <v>382.7100425638907</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>63.78500709398178</v>
       </c>
     </row>
     <row r="35">
@@ -642,7 +1058,19 @@
         <v>4.31917</v>
       </c>
       <c r="B35" t="n">
-        <v>3.655778729522194e-05</v>
+        <v>5.378240801969527e-05</v>
+      </c>
+      <c r="C35" t="n">
+        <v>2.962042668730341e-06</v>
+      </c>
+      <c r="D35" t="n">
+        <v>294.74179903319</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>49.12363317219833</v>
       </c>
     </row>
     <row r="36">
@@ -650,7 +1078,19 @@
         <v>4.32116</v>
       </c>
       <c r="B36" t="n">
-        <v>3.686703735466424e-05</v>
+        <v>5.599423901918458e-05</v>
+      </c>
+      <c r="C36" t="n">
+        <v>2.770026531951774e-06</v>
+      </c>
+      <c r="D36" t="n">
+        <v>304.9127898417519</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>50.81879830695865</v>
       </c>
     </row>
     <row r="37">
@@ -658,7 +1098,19 @@
         <v>4.32298</v>
       </c>
       <c r="B37" t="n">
-        <v>3.145549904902454e-05</v>
+        <v>4.648187184668167e-05</v>
+      </c>
+      <c r="C37" t="n">
+        <v>2.351040792870619e-06</v>
+      </c>
+      <c r="D37" t="n">
+        <v>316.0797883583089</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>52.67996472638482</v>
       </c>
     </row>
     <row r="38">
@@ -666,7 +1118,19 @@
         <v>4.32521</v>
       </c>
       <c r="B38" t="n">
-        <v>3.107988495576875e-05</v>
+        <v>4.419835970856854e-05</v>
+      </c>
+      <c r="C38" t="n">
+        <v>2.022324118579326e-06</v>
+      </c>
+      <c r="D38" t="n">
+        <v>322.0624318811657</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>53.67707198019428</v>
       </c>
     </row>
     <row r="39">
@@ -674,7 +1138,19 @@
         <v>4.32711</v>
       </c>
       <c r="B39" t="n">
-        <v>3.758907193200976e-05</v>
+        <v>4.696879194841723e-05</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1.87857421424035e-06</v>
+      </c>
+      <c r="D39" t="n">
+        <v>266.7774666682432</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>44.46291111137386</v>
       </c>
     </row>
     <row r="40">
@@ -682,7 +1158,19 @@
         <v>4.32908</v>
       </c>
       <c r="B40" t="n">
-        <v>3.389040396099316e-05</v>
+        <v>4.098261966934866e-05</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1.501595378865087e-06</v>
+      </c>
+      <c r="D40" t="n">
+        <v>246.3367723075431</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>41.05612871792385</v>
       </c>
     </row>
     <row r="41">
@@ -690,7 +1178,19 @@
         <v>4.33012</v>
       </c>
       <c r="B41" t="n">
-        <v>2.705305413078841e-05</v>
+        <v>3.796041083642107e-05</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1.744644469428809e-06</v>
+      </c>
+      <c r="D41" t="n">
+        <v>317.5963408181128</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>52.93272346968547</v>
       </c>
     </row>
     <row r="42">
@@ -698,7 +1198,19 @@
         <v>4.33119</v>
       </c>
       <c r="B42" t="n">
-        <v>3.492647678542911e-05</v>
+        <v>3.924519109764706e-05</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1.321972096608212e-06</v>
+      </c>
+      <c r="D42" t="n">
+        <v>142.1880615552966</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>23.6980102592161</v>
       </c>
     </row>
     <row r="43">
@@ -706,7 +1218,19 @@
         <v>4.33324</v>
       </c>
       <c r="B43" t="n">
-        <v>4.400862472060056e-05</v>
+        <v>4.730016676388072e-05</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1.304564953186659e-06</v>
+      </c>
+      <c r="D43" t="n">
+        <v>119.9090466181026</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>19.98484110301709</v>
       </c>
     </row>
     <row r="44">
@@ -714,7 +1238,19 @@
         <v>4.33515</v>
       </c>
       <c r="B44" t="n">
-        <v>4.139940571682025e-05</v>
+        <v>4.569566959832409e-05</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1.19131785395908e-06</v>
+      </c>
+      <c r="D44" t="n">
+        <v>136.7314423869012</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>22.78857373115019</v>
       </c>
     </row>
     <row r="45">
@@ -722,7 +1258,19 @@
         <v>4.34004</v>
       </c>
       <c r="B45" t="n">
-        <v>3.970422332199164e-05</v>
+        <v>4.263251051375598e-05</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1.07732499324375e-06</v>
+      </c>
+      <c r="D45" t="n">
+        <v>108.8181207193009</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>18.13635345321681</v>
       </c>
     </row>
     <row r="46">
@@ -730,7 +1278,19 @@
         <v>4.34488</v>
       </c>
       <c r="B46" t="n">
-        <v>3.812503470506669e-05</v>
+        <v>4.028241957616996e-05</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1.020151175601073e-06</v>
+      </c>
+      <c r="D46" t="n">
+        <v>77.69158229617375</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1.06581410364015e-14</v>
+      </c>
+      <c r="F46" t="n">
+        <v>12.94859704936229</v>
       </c>
     </row>
     <row r="47">
@@ -738,7 +1298,19 @@
         <v>4.34998</v>
       </c>
       <c r="B47" t="n">
-        <v>3.695495472197445e-05</v>
+        <v>3.919346391221836e-05</v>
+      </c>
+      <c r="C47" t="n">
+        <v>9.652116922785874e-07</v>
+      </c>
+      <c r="D47" t="n">
+        <v>77.65435250200105</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1.088018564132653e-14</v>
+      </c>
+      <c r="F47" t="n">
+        <v>12.94239208366684</v>
       </c>
     </row>
     <row r="48">
@@ -746,7 +1318,19 @@
         <v>4.37005</v>
       </c>
       <c r="B48" t="n">
-        <v>3.256826347687153e-05</v>
+        <v>3.357444679383922e-05</v>
+      </c>
+      <c r="C48" t="n">
+        <v>8.611095797484518e-07</v>
+      </c>
+      <c r="D48" t="n">
+        <v>52.22377040042046</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1.681249695018039e-09</v>
+      </c>
+      <c r="F48" t="n">
+        <v>8.703961733403411</v>
       </c>
     </row>
     <row r="49">
@@ -754,7 +1338,19 @@
         <v>4.39015</v>
       </c>
       <c r="B49" t="n">
-        <v>3.24084206403904e-05</v>
+        <v>3.355566414835238e-05</v>
+      </c>
+      <c r="C49" t="n">
+        <v>8.915441308862721e-07</v>
+      </c>
+      <c r="D49" t="n">
+        <v>54.58538638425357</v>
+      </c>
+      <c r="E49" t="n">
+        <v>5.620756082791445e-10</v>
+      </c>
+      <c r="F49" t="n">
+        <v>9.097564397375594</v>
       </c>
     </row>
     <row r="50">
@@ -762,7 +1358,19 @@
         <v>4.41003</v>
       </c>
       <c r="B50" t="n">
-        <v>3.536420672831059e-05</v>
+        <v>3.630540841013823e-05</v>
+      </c>
+      <c r="C50" t="n">
+        <v>9.752310221018122e-07</v>
+      </c>
+      <c r="D50" t="n">
+        <v>53.52563833580803</v>
+      </c>
+      <c r="E50" t="n">
+        <v>9.194233152598486e-10</v>
+      </c>
+      <c r="F50" t="n">
+        <v>8.920939722634671</v>
       </c>
     </row>
     <row r="51">
@@ -770,7 +1378,19 @@
         <v>4.42024</v>
       </c>
       <c r="B51" t="n">
-        <v>3.813852543932729e-05</v>
+        <v>3.869612453505689e-05</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1.096691561196668e-06</v>
+      </c>
+      <c r="D51" t="n">
+        <v>35.95414137642858</v>
+      </c>
+      <c r="E51" t="n">
+        <v>2.813779257371252e-06</v>
+      </c>
+      <c r="F51" t="n">
+        <v>5.99235689607143</v>
       </c>
     </row>
     <row r="52">
@@ -778,7 +1398,19 @@
         <v>4.43018</v>
       </c>
       <c r="B52" t="n">
-        <v>3.691948560482988e-05</v>
+        <v>3.797146866043066e-05</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1.076017987489671e-06</v>
+      </c>
+      <c r="D52" t="n">
+        <v>50.39875000182357</v>
+      </c>
+      <c r="E52" t="n">
+        <v>3.910520796068795e-09</v>
+      </c>
+      <c r="F52" t="n">
+        <v>8.399791666970595</v>
       </c>
     </row>
     <row r="53">
@@ -786,7 +1418,19 @@
         <v>4.44004</v>
       </c>
       <c r="B53" t="n">
-        <v>3.261688800009899e-05</v>
+        <v>3.308885287575523e-05</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1.500195232103707e-06</v>
+      </c>
+      <c r="D53" t="n">
+        <v>38.81757588250735</v>
+      </c>
+      <c r="E53" t="n">
+        <v>7.771705853309996e-07</v>
+      </c>
+      <c r="F53" t="n">
+        <v>6.469595980417892</v>
       </c>
     </row>
     <row r="54">
@@ -794,7 +1438,19 @@
         <v>4.44994</v>
       </c>
       <c r="B54" t="n">
-        <v>2.744175775119035e-05</v>
+        <v>3.112977262205669e-05</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1.576800601799389e-06</v>
+      </c>
+      <c r="D54" t="n">
+        <v>66.22017054263766</v>
+      </c>
+      <c r="E54" t="n">
+        <v>2.429834111694618e-12</v>
+      </c>
+      <c r="F54" t="n">
+        <v>11.03669509043961</v>
       </c>
     </row>
     <row r="55">
@@ -802,7 +1458,19 @@
         <v>4.45499</v>
       </c>
       <c r="B55" t="n">
-        <v>2.169807990414322e-05</v>
+        <v>2.107346547085851e-05</v>
+      </c>
+      <c r="C55" t="n">
+        <v>2.540066132334918e-06</v>
+      </c>
+      <c r="D55" t="n">
+        <v>4.995601520362881</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.5443773791907882</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.8326002533938136</v>
       </c>
     </row>
     <row r="56">
@@ -810,7 +1478,19 @@
         <v>4.46012</v>
       </c>
       <c r="B56" t="n">
-        <v>2.079504923594902e-05</v>
+        <v>2.07629960943266e-05</v>
+      </c>
+      <c r="C56" t="n">
+        <v>3.325338833805449e-06</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1.628407173134877</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.9505134425673305</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.2714011955224795</v>
       </c>
     </row>
     <row r="57">
@@ -818,7 +1498,19 @@
         <v>4.469959999999999</v>
       </c>
       <c r="B57" t="n">
-        <v>2.235866111539716e-05</v>
+        <v>2.235032490176362e-05</v>
+      </c>
+      <c r="C57" t="n">
+        <v>2.789027469983495e-06</v>
+      </c>
+      <c r="D57" t="n">
+        <v>11.06242424535598</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.08646618980000464</v>
+      </c>
+      <c r="F57" t="n">
+        <v>1.843737374225997</v>
       </c>
     </row>
     <row r="58">
@@ -826,7 +1518,19 @@
         <v>4.477980000000001</v>
       </c>
       <c r="B58" t="n">
-        <v>2.756909737060601e-05</v>
+        <v>2.831768535471171e-05</v>
+      </c>
+      <c r="C58" t="n">
+        <v>2.944448694110848e-06</v>
+      </c>
+      <c r="D58" t="n">
+        <v>12.6208190775646</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.04946849903896566</v>
+      </c>
+      <c r="F58" t="n">
+        <v>2.103469846260767</v>
       </c>
     </row>
     <row r="59">
@@ -834,7 +1538,19 @@
         <v>4.48613</v>
       </c>
       <c r="B59" t="n">
-        <v>3.875094037708013e-05</v>
+        <v>3.929761924987423e-05</v>
+      </c>
+      <c r="C59" t="n">
+        <v>2.091125781148201e-06</v>
+      </c>
+      <c r="D59" t="n">
+        <v>40.20439773448993</v>
+      </c>
+      <c r="E59" t="n">
+        <v>4.15265231423767e-07</v>
+      </c>
+      <c r="F59" t="n">
+        <v>6.700732955748322</v>
       </c>
     </row>
     <row r="60">
@@ -842,7 +1558,19 @@
         <v>4.48819</v>
       </c>
       <c r="B60" t="n">
-        <v>3.992419276816926e-05</v>
+        <v>4.216576229178561e-05</v>
+      </c>
+      <c r="C60" t="n">
+        <v>1.936054653032007e-06</v>
+      </c>
+      <c r="D60" t="n">
+        <v>59.34555973538335</v>
+      </c>
+      <c r="E60" t="n">
+        <v>6.112421679915769e-11</v>
+      </c>
+      <c r="F60" t="n">
+        <v>9.890926622563892</v>
       </c>
     </row>
     <row r="61">
@@ -850,7 +1578,19 @@
         <v>4.490069999999999</v>
       </c>
       <c r="B61" t="n">
-        <v>3.864104718259945e-05</v>
+        <v>4.151797816744482e-05</v>
+      </c>
+      <c r="C61" t="n">
+        <v>2.038016236159144e-06</v>
+      </c>
+      <c r="D61" t="n">
+        <v>68.60870959465132</v>
+      </c>
+      <c r="E61" t="n">
+        <v>7.884803920887862e-13</v>
+      </c>
+      <c r="F61" t="n">
+        <v>11.43478493244189</v>
       </c>
     </row>
     <row r="62">
@@ -858,7 +1598,19 @@
         <v>4.49222</v>
       </c>
       <c r="B62" t="n">
-        <v>4.591904205166319e-05</v>
+        <v>4.822997489785854e-05</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1.625604647435381e-06</v>
+      </c>
+      <c r="D62" t="n">
+        <v>86.96089315300529</v>
+      </c>
+      <c r="E62" t="n">
+        <v>1.110223024625157e-16</v>
+      </c>
+      <c r="F62" t="n">
+        <v>14.49348219216755</v>
       </c>
     </row>
     <row r="63">
@@ -866,7 +1618,19 @@
         <v>4.49499</v>
       </c>
       <c r="B63" t="n">
-        <v>4.73144971744448e-05</v>
+        <v>5.190012926917214e-05</v>
+      </c>
+      <c r="C63" t="n">
+        <v>1.448657786989333e-06</v>
+      </c>
+      <c r="D63" t="n">
+        <v>139.6900740877831</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>23.28167901463052</v>
       </c>
     </row>
     <row r="64">
@@ -874,7 +1638,19 @@
         <v>4.499969999999999</v>
       </c>
       <c r="B64" t="n">
-        <v>4.719142749321824e-05</v>
+        <v>5.333651992193853e-05</v>
+      </c>
+      <c r="C64" t="n">
+        <v>1.390634323323625e-06</v>
+      </c>
+      <c r="D64" t="n">
+        <v>171.9745129456241</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>28.66241882427068</v>
       </c>
     </row>
     <row r="65">
@@ -882,7 +1658,19 @@
         <v>4.51021</v>
       </c>
       <c r="B65" t="n">
-        <v>4.911080482568142e-05</v>
+        <v>5.702819888377381e-05</v>
+      </c>
+      <c r="C65" t="n">
+        <v>1.365019853471605e-06</v>
+      </c>
+      <c r="D65" t="n">
+        <v>200.6471519119274</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>33.44119198532123</v>
       </c>
     </row>
     <row r="66">
@@ -890,7 +1678,19 @@
         <v>4.51218</v>
       </c>
       <c r="B66" t="n">
-        <v>5.487530263348408e-05</v>
+        <v>6.445945979642855e-05</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1.81027499940166e-06</v>
+      </c>
+      <c r="D66" t="n">
+        <v>199.40502098227</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" t="n">
+        <v>33.23417016371167</v>
       </c>
     </row>
     <row r="67">
@@ -898,7 +1698,19 @@
         <v>4.51508</v>
       </c>
       <c r="B67" t="n">
-        <v>5.574623448771941e-05</v>
+        <v>6.368192178872638e-05</v>
+      </c>
+      <c r="C67" t="n">
+        <v>2.538311470764707e-06</v>
+      </c>
+      <c r="D67" t="n">
+        <v>133.9105070745329</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>22.31841784575548</v>
       </c>
     </row>
     <row r="68">
@@ -906,7 +1718,19 @@
         <v>4.52007</v>
       </c>
       <c r="B68" t="n">
-        <v>4.977307748362901e-05</v>
+        <v>5.595060024667958e-05</v>
+      </c>
+      <c r="C68" t="n">
+        <v>2.81408636522432e-06</v>
+      </c>
+      <c r="D68" t="n">
+        <v>84.08997782731235</v>
+      </c>
+      <c r="E68" t="n">
+        <v>5.551115123125783e-16</v>
+      </c>
+      <c r="F68" t="n">
+        <v>14.01499630455206</v>
       </c>
     </row>
     <row r="69">
@@ -914,7 +1738,19 @@
         <v>4.52524</v>
       </c>
       <c r="B69" t="n">
-        <v>4.838565650268287e-05</v>
+        <v>5.438097454334403e-05</v>
+      </c>
+      <c r="C69" t="n">
+        <v>3.838681634571129e-06</v>
+      </c>
+      <c r="D69" t="n">
+        <v>49.12681100018041</v>
+      </c>
+      <c r="E69" t="n">
+        <v>7.032666560213841e-09</v>
+      </c>
+      <c r="F69" t="n">
+        <v>8.187801833363402</v>
       </c>
     </row>
     <row r="70">
@@ -922,7 +1758,19 @@
         <v>4.529409999999999</v>
       </c>
       <c r="B70" t="n">
-        <v>5.176467064454867e-05</v>
+        <v>5.74625311230243e-05</v>
+      </c>
+      <c r="C70" t="n">
+        <v>3.291239518173412e-06</v>
+      </c>
+      <c r="D70" t="n">
+        <v>66.08032194257069</v>
+      </c>
+      <c r="E70" t="n">
+        <v>2.595146320061303e-12</v>
+      </c>
+      <c r="F70" t="n">
+        <v>11.01338699042845</v>
       </c>
     </row>
     <row r="71">
@@ -930,7 +1778,19 @@
         <v>4.53506</v>
       </c>
       <c r="B71" t="n">
-        <v>2.546792062959256e-05</v>
+        <v>3.728648684681475e-05</v>
+      </c>
+      <c r="C71" t="n">
+        <v>4.442165198085674e-06</v>
+      </c>
+      <c r="D71" t="n">
+        <v>42.41364143590341</v>
+      </c>
+      <c r="E71" t="n">
+        <v>1.523411871096059e-07</v>
+      </c>
+      <c r="F71" t="n">
+        <v>7.068940239317235</v>
       </c>
     </row>
     <row r="72">
@@ -938,7 +1798,19 @@
         <v>4.54024</v>
       </c>
       <c r="B72" t="n">
-        <v>3.615049543947304e-05</v>
+        <v>3.82033456594107e-05</v>
+      </c>
+      <c r="C72" t="n">
+        <v>5.750843213695364e-06</v>
+      </c>
+      <c r="D72" t="n">
+        <v>9.736380088927971</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.1362016561875362</v>
+      </c>
+      <c r="F72" t="n">
+        <v>1.622730014821329</v>
       </c>
     </row>
     <row r="73">
@@ -946,7 +1818,19 @@
         <v>4.5498</v>
       </c>
       <c r="B73" t="n">
-        <v>4.747913301518288e-05</v>
+        <v>4.959382015701958e-05</v>
+      </c>
+      <c r="C73" t="n">
+        <v>3.08239344566876e-06</v>
+      </c>
+      <c r="D73" t="n">
+        <v>33.98981220412048</v>
+      </c>
+      <c r="E73" t="n">
+        <v>6.757940143709007e-06</v>
+      </c>
+      <c r="F73" t="n">
+        <v>5.664968700686747</v>
       </c>
     </row>
     <row r="74">
@@ -954,7 +1838,19 @@
         <v>4.56018</v>
       </c>
       <c r="B74" t="n">
-        <v>1.530282569094835e-05</v>
+        <v>1.76567105912424e-05</v>
+      </c>
+      <c r="C74" t="n">
+        <v>3.544618917939091e-06</v>
+      </c>
+      <c r="D74" t="n">
+        <v>5.239078609050217</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.5135354713201687</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.8731797681750361</v>
       </c>
     </row>
     <row r="75">
@@ -962,7 +1858,19 @@
         <v>4.570130000000001</v>
       </c>
       <c r="B75" t="n">
-        <v>7.484284157503525e-06</v>
+        <v>1.175095349301113e-05</v>
+      </c>
+      <c r="C75" t="n">
+        <v>3.293346464660226e-06</v>
+      </c>
+      <c r="D75" t="n">
+        <v>5.281753019411692</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.5082168262832394</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.8802921699019487</v>
       </c>
     </row>
     <row r="76">
@@ -970,7 +1878,19 @@
         <v>4.580030000000001</v>
       </c>
       <c r="B76" t="n">
-        <v>2.45994559605324e-06</v>
+        <v>5.922676393742597e-06</v>
+      </c>
+      <c r="C76" t="n">
+        <v>1.829739710123213e-06</v>
+      </c>
+      <c r="D76" t="n">
+        <v>19.3873304340787</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.003557125115998816</v>
+      </c>
+      <c r="F76" t="n">
+        <v>3.231221739013117</v>
       </c>
     </row>
     <row r="77">
@@ -978,7 +1898,19 @@
         <v>4.59008</v>
       </c>
       <c r="B77" t="n">
-        <v>3.325466834873552e-05</v>
+        <v>3.926695099926737e-05</v>
+      </c>
+      <c r="C77" t="n">
+        <v>3.024149593665366e-06</v>
+      </c>
+      <c r="D77" t="n">
+        <v>62.22880232921995</v>
+      </c>
+      <c r="E77" t="n">
+        <v>1.584810060961672e-11</v>
+      </c>
+      <c r="F77" t="n">
+        <v>10.37146705486999</v>
       </c>
     </row>
     <row r="78">
@@ -986,7 +1918,19 @@
         <v>4.60027</v>
       </c>
       <c r="B78" t="n">
-        <v>5.095816766186582e-05</v>
+        <v>7.308425583482757e-05</v>
+      </c>
+      <c r="C78" t="n">
+        <v>3.866452489033763e-06</v>
+      </c>
+      <c r="D78" t="n">
+        <v>289.3750504193694</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0</v>
+      </c>
+      <c r="F78" t="n">
+        <v>48.2291750698949</v>
       </c>
     </row>
     <row r="79">
@@ -994,7 +1938,19 @@
         <v>4.60999</v>
       </c>
       <c r="B79" t="n">
-        <v>1.781595586134546e-05</v>
+        <v>5.387825578922491e-05</v>
+      </c>
+      <c r="C79" t="n">
+        <v>4.406047342419645e-06</v>
+      </c>
+      <c r="D79" t="n">
+        <v>781.790066255864</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0</v>
+      </c>
+      <c r="F79" t="n">
+        <v>130.2983443759773</v>
       </c>
     </row>
     <row r="80">
@@ -1002,7 +1958,19 @@
         <v>4.62023</v>
       </c>
       <c r="B80" t="n">
-        <v>2.108943960505216e-05</v>
+        <v>8.166747985605669e-05</v>
+      </c>
+      <c r="C80" t="n">
+        <v>6.646420441088675e-06</v>
+      </c>
+      <c r="D80" t="n">
+        <v>623.044284109438</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0</v>
+      </c>
+      <c r="F80" t="n">
+        <v>103.8407140182397</v>
       </c>
     </row>
     <row r="81">
@@ -1010,7 +1978,19 @@
         <v>4.62994</v>
       </c>
       <c r="B81" t="n">
-        <v>3.370858590091055e-05</v>
+        <v>8.165273849295572e-05</v>
+      </c>
+      <c r="C81" t="n">
+        <v>5.151201294880079e-06</v>
+      </c>
+      <c r="D81" t="n">
+        <v>672.7204909786176</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0</v>
+      </c>
+      <c r="F81" t="n">
+        <v>112.1200818297696</v>
       </c>
     </row>
     <row r="82">
@@ -1018,7 +1998,19 @@
         <v>4.63517</v>
       </c>
       <c r="B82" t="n">
-        <v>5.490623037834519e-05</v>
+        <v>8.474675678515041e-05</v>
+      </c>
+      <c r="C82" t="n">
+        <v>4.190087677158252e-06</v>
+      </c>
+      <c r="D82" t="n">
+        <v>385.2835003509908</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0</v>
+      </c>
+      <c r="F82" t="n">
+        <v>64.21391672516513</v>
       </c>
     </row>
     <row r="83">
@@ -1026,7 +2018,19 @@
         <v>4.639959999999999</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0001152953052761642</v>
+        <v>0.0001314991554473836</v>
+      </c>
+      <c r="C83" t="n">
+        <v>4.330167597664489e-06</v>
+      </c>
+      <c r="D83" t="n">
+        <v>213.8735964650948</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0</v>
+      </c>
+      <c r="F83" t="n">
+        <v>35.64559941084914</v>
       </c>
     </row>
     <row r="84">
@@ -1034,7 +2038,19 @@
         <v>4.64996</v>
       </c>
       <c r="B84" t="n">
-        <v>8.863045586738698e-05</v>
+        <v>0.0001215770506846388</v>
+      </c>
+      <c r="C84" t="n">
+        <v>3.911317816017298e-06</v>
+      </c>
+      <c r="D84" t="n">
+        <v>398.6634268038873</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0</v>
+      </c>
+      <c r="F84" t="n">
+        <v>66.44390446731455</v>
       </c>
     </row>
     <row r="85">
@@ -1042,7 +2058,19 @@
         <v>4.67012</v>
       </c>
       <c r="B85" t="n">
-        <v>9.505392293494322e-05</v>
+        <v>0.0001223000313345222</v>
+      </c>
+      <c r="C85" t="n">
+        <v>3.302456799702574e-06</v>
+      </c>
+      <c r="D85" t="n">
+        <v>444.5003713609482</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0</v>
+      </c>
+      <c r="F85" t="n">
+        <v>74.08339522682469</v>
       </c>
     </row>
     <row r="86">
@@ -1050,7 +2078,19 @@
         <v>4.68015</v>
       </c>
       <c r="B86" t="n">
-        <v>9.138319957137293e-05</v>
+        <v>0.0001070016761362872</v>
+      </c>
+      <c r="C86" t="n">
+        <v>2.657542671381799e-06</v>
+      </c>
+      <c r="D86" t="n">
+        <v>262.465736259659</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0</v>
+      </c>
+      <c r="F86" t="n">
+        <v>43.74428937660983</v>
       </c>
     </row>
     <row r="87">
@@ -1058,7 +2098,19 @@
         <v>4.68993</v>
       </c>
       <c r="B87" t="n">
-        <v>6.660750830047119e-05</v>
+        <v>7.913347308345561e-05</v>
+      </c>
+      <c r="C87" t="n">
+        <v>2.005794534370216e-06</v>
+      </c>
+      <c r="D87" t="n">
+        <v>267.4399945087559</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0</v>
+      </c>
+      <c r="F87" t="n">
+        <v>44.57333241812599</v>
       </c>
     </row>
     <row r="88">
@@ -1066,7 +2118,19 @@
         <v>4.71002</v>
       </c>
       <c r="B88" t="n">
-        <v>6.423009262835681e-05</v>
+        <v>7.442941348509602e-05</v>
+      </c>
+      <c r="C88" t="n">
+        <v>1.719767135479468e-06</v>
+      </c>
+      <c r="D88" t="n">
+        <v>211.5417890160704</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0</v>
+      </c>
+      <c r="F88" t="n">
+        <v>35.25696483601174</v>
       </c>
     </row>
     <row r="89">
@@ -1074,7 +2138,19 @@
         <v>4.73</v>
       </c>
       <c r="B89" t="n">
-        <v>6.811206805180376e-05</v>
+        <v>7.971199183014141e-05</v>
+      </c>
+      <c r="C89" t="n">
+        <v>1.920215785112704e-06</v>
+      </c>
+      <c r="D89" t="n">
+        <v>224.9378771342063</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0</v>
+      </c>
+      <c r="F89" t="n">
+        <v>37.48964618903439</v>
       </c>
     </row>
     <row r="90">
@@ -1082,7 +2158,19 @@
         <v>4.75</v>
       </c>
       <c r="B90" t="n">
-        <v>8.95888000850555e-05</v>
+        <v>0.0001129383684061722</v>
+      </c>
+      <c r="C90" t="n">
+        <v>2.708421475087229e-06</v>
+      </c>
+      <c r="D90" t="n">
+        <v>341.3934012360855</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0</v>
+      </c>
+      <c r="F90" t="n">
+        <v>56.89890020601425</v>
       </c>
     </row>
     <row r="91">
@@ -1090,7 +2178,19 @@
         <v>4.75518</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0001468685848436901</v>
+        <v>0.0001881615370801248</v>
+      </c>
+      <c r="C91" t="n">
+        <v>4.669289714575598e-06</v>
+      </c>
+      <c r="D91" t="n">
+        <v>478.3539202119101</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0</v>
+      </c>
+      <c r="F91" t="n">
+        <v>79.72565336865168</v>
       </c>
     </row>
     <row r="92">
@@ -1098,7 +2198,19 @@
         <v>4.75888</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0001599592589093574</v>
+        <v>0.000201818006865407</v>
+      </c>
+      <c r="C92" t="n">
+        <v>4.916521065886456e-06</v>
+      </c>
+      <c r="D92" t="n">
+        <v>434.7868460502731</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0</v>
+      </c>
+      <c r="F92" t="n">
+        <v>72.46447434171219</v>
       </c>
     </row>
     <row r="93">
@@ -1106,7 +2218,19 @@
         <v>4.77004</v>
       </c>
       <c r="B93" t="n">
-        <v>0.0001658497267730739</v>
+        <v>0.0002098493505943231</v>
+      </c>
+      <c r="C93" t="n">
+        <v>5.141283341927894e-06</v>
+      </c>
+      <c r="D93" t="n">
+        <v>381.2659663321848</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0</v>
+      </c>
+      <c r="F93" t="n">
+        <v>63.5443277220308</v>
       </c>
     </row>
     <row r="94">
@@ -1114,7 +2238,19 @@
         <v>4.77502</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0001679875812666959</v>
+        <v>0.0001966486398664204</v>
+      </c>
+      <c r="C94" t="n">
+        <v>5.094094807126431e-06</v>
+      </c>
+      <c r="D94" t="n">
+        <v>237.8073161689513</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0</v>
+      </c>
+      <c r="F94" t="n">
+        <v>39.63455269482521</v>
       </c>
     </row>
     <row r="95">
@@ -1122,7 +2258,19 @@
         <v>4.780180000000001</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0001428516545776325</v>
+        <v>0.0001579316657570735</v>
+      </c>
+      <c r="C95" t="n">
+        <v>5.423027960401439e-06</v>
+      </c>
+      <c r="D95" t="n">
+        <v>123.6711782661599</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0</v>
+      </c>
+      <c r="F95" t="n">
+        <v>20.61186304435999</v>
       </c>
     </row>
     <row r="96">
@@ -1130,7 +2278,19 @@
         <v>4.79012</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0002467025527232035</v>
+        <v>0.0002684473384183492</v>
+      </c>
+      <c r="C96" t="n">
+        <v>7.363831440471577e-06</v>
+      </c>
+      <c r="D96" t="n">
+        <v>115.483871117685</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0</v>
+      </c>
+      <c r="F96" t="n">
+        <v>19.2473118529475</v>
       </c>
     </row>
     <row r="97">
@@ -1138,7 +2298,19 @@
         <v>4.799919999999999</v>
       </c>
       <c r="B97" t="n">
-        <v>0.000480899445251439</v>
+        <v>0.000546194380255011</v>
+      </c>
+      <c r="C97" t="n">
+        <v>1.222228885601021e-05</v>
+      </c>
+      <c r="D97" t="n">
+        <v>168.6876003452896</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0</v>
+      </c>
+      <c r="F97" t="n">
+        <v>28.11460005754827</v>
       </c>
     </row>
     <row r="98">
@@ -1146,7 +2318,19 @@
         <v>4.81003</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0004190146105132595</v>
+        <v>0.0004804825398995329</v>
+      </c>
+      <c r="C98" t="n">
+        <v>1.062450378967312e-05</v>
+      </c>
+      <c r="D98" t="n">
+        <v>183.7738335220507</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0</v>
+      </c>
+      <c r="F98" t="n">
+        <v>30.62897225367511</v>
       </c>
     </row>
     <row r="99">
@@ -1154,7 +2338,19 @@
         <v>4.81216</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0002738702302135915</v>
+        <v>0.000316221929934623</v>
+      </c>
+      <c r="C99" t="n">
+        <v>6.952256779446237e-06</v>
+      </c>
+      <c r="D99" t="n">
+        <v>200.9693056769524</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0</v>
+      </c>
+      <c r="F99" t="n">
+        <v>33.49488427949206</v>
       </c>
     </row>
     <row r="100">
@@ -1162,7 +2358,19 @@
         <v>4.81527</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0001866381555345364</v>
+        <v>0.0002080435095454339</v>
+      </c>
+      <c r="C100" t="n">
+        <v>4.543682508284045e-06</v>
+      </c>
+      <c r="D100" t="n">
+        <v>151.7341680110526</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0</v>
+      </c>
+      <c r="F100" t="n">
+        <v>25.2890280018421</v>
       </c>
     </row>
     <row r="101">
@@ -1170,7 +2378,19 @@
         <v>4.82006</v>
       </c>
       <c r="B101" t="n">
-        <v>9.620607189507619e-05</v>
+        <v>0.0001045348812348446</v>
+      </c>
+      <c r="C101" t="n">
+        <v>2.370219165974767e-06</v>
+      </c>
+      <c r="D101" t="n">
+        <v>124.0532463614212</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0</v>
+      </c>
+      <c r="F101" t="n">
+        <v>20.67554106023686</v>
       </c>
     </row>
     <row r="102">
@@ -1178,7 +2398,19 @@
         <v>4.82989</v>
       </c>
       <c r="B102" t="n">
-        <v>7.211285827823538e-05</v>
+        <v>7.643347972075683e-05</v>
+      </c>
+      <c r="C102" t="n">
+        <v>1.661495057534386e-06</v>
+      </c>
+      <c r="D102" t="n">
+        <v>79.85384779790181</v>
+      </c>
+      <c r="E102" t="n">
+        <v>3.774758283725532e-15</v>
+      </c>
+      <c r="F102" t="n">
+        <v>13.30897463298363</v>
       </c>
     </row>
     <row r="103">
@@ -1186,7 +2418,19 @@
         <v>4.85003</v>
       </c>
       <c r="B103" t="n">
-        <v>7.362741313205736e-05</v>
+        <v>7.848691147333257e-05</v>
+      </c>
+      <c r="C103" t="n">
+        <v>1.684535166197093e-06</v>
+      </c>
+      <c r="D103" t="n">
+        <v>83.01152347196492</v>
+      </c>
+      <c r="E103" t="n">
+        <v>8.881784197001252e-16</v>
+      </c>
+      <c r="F103" t="n">
+        <v>13.83525391199415</v>
       </c>
     </row>
     <row r="104">
@@ -1194,7 +2438,19 @@
         <v>4.86629</v>
       </c>
       <c r="B104" t="n">
-        <v>7.839017234495324e-05</v>
+        <v>8.346087306394493e-05</v>
+      </c>
+      <c r="C104" t="n">
+        <v>1.81693728495155e-06</v>
+      </c>
+      <c r="D104" t="n">
+        <v>81.0110188413875</v>
+      </c>
+      <c r="E104" t="n">
+        <v>2.220446049250313e-15</v>
+      </c>
+      <c r="F104" t="n">
+        <v>13.50183647356458</v>
       </c>
     </row>
     <row r="105">
@@ -1202,7 +2458,19 @@
         <v>4.88989</v>
       </c>
       <c r="B105" t="n">
-        <v>7.975275543034019e-05</v>
+        <v>8.781580657038532e-05</v>
+      </c>
+      <c r="C105" t="n">
+        <v>1.854138922597223e-06</v>
+      </c>
+      <c r="D105" t="n">
+        <v>125.3822151688829</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0</v>
+      </c>
+      <c r="F105" t="n">
+        <v>20.89703586148049</v>
       </c>
     </row>
     <row r="106">
@@ -1210,7 +2478,19 @@
         <v>4.89991</v>
       </c>
       <c r="B106" t="n">
-        <v>8.84967388765155e-05</v>
+        <v>9.556047880432833e-05</v>
+      </c>
+      <c r="C106" t="n">
+        <v>2.205886260168618e-06</v>
+      </c>
+      <c r="D106" t="n">
+        <v>104.3157519581925</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0</v>
+      </c>
+      <c r="F106" t="n">
+        <v>17.38595865969876</v>
       </c>
     </row>
     <row r="107">
@@ -1218,7 +2498,19 @@
         <v>4.910130000000001</v>
       </c>
       <c r="B107" t="n">
-        <v>8.43352637208345e-05</v>
+        <v>9.40051410958226e-05</v>
+      </c>
+      <c r="C107" t="n">
+        <v>2.174222015272559e-06</v>
+      </c>
+      <c r="D107" t="n">
+        <v>149.5964971843067</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0</v>
+      </c>
+      <c r="F107" t="n">
+        <v>24.93274953071779</v>
       </c>
     </row>
     <row r="108">
@@ -1226,7 +2518,19 @@
         <v>4.91996</v>
       </c>
       <c r="B108" t="n">
-        <v>9.114680862630791e-05</v>
+        <v>9.68457235166161e-05</v>
+      </c>
+      <c r="C108" t="n">
+        <v>2.353736443303284e-06</v>
+      </c>
+      <c r="D108" t="n">
+        <v>87.58659157497662</v>
+      </c>
+      <c r="E108" t="n">
+        <v>1.110223024625157e-16</v>
+      </c>
+      <c r="F108" t="n">
+        <v>14.5977652624961</v>
       </c>
     </row>
     <row r="109">
@@ -1234,7 +2538,19 @@
         <v>4.92615</v>
       </c>
       <c r="B109" t="n">
-        <v>9.066637174508193e-05</v>
+        <v>9.840148602920959e-05</v>
+      </c>
+      <c r="C109" t="n">
+        <v>2.161137405497046e-06</v>
+      </c>
+      <c r="D109" t="n">
+        <v>106.1705374840082</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0</v>
+      </c>
+      <c r="F109" t="n">
+        <v>17.69508958066803</v>
       </c>
     </row>
     <row r="110">
@@ -1242,7 +2558,19 @@
         <v>4.930190000000001</v>
       </c>
       <c r="B110" t="n">
-        <v>8.713570772647141e-05</v>
+        <v>9.818747831371333e-05</v>
+      </c>
+      <c r="C110" t="n">
+        <v>2.342276721959565e-06</v>
+      </c>
+      <c r="D110" t="n">
+        <v>156.8797460360951</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0</v>
+      </c>
+      <c r="F110" t="n">
+        <v>26.14662433934918</v>
       </c>
     </row>
     <row r="111">
@@ -1250,7 +2578,19 @@
         <v>4.93692</v>
       </c>
       <c r="B111" t="n">
-        <v>9.122772234486239e-05</v>
+        <v>0.0001004302811230221</v>
+      </c>
+      <c r="C111" t="n">
+        <v>2.241314001094681e-06</v>
+      </c>
+      <c r="D111" t="n">
+        <v>128.3110375276682</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0</v>
+      </c>
+      <c r="F111" t="n">
+        <v>21.38517292127804</v>
       </c>
     </row>
     <row r="112">
@@ -1258,7 +2598,19 @@
         <v>4.94675</v>
       </c>
       <c r="B112" t="n">
-        <v>8.994662650939975e-05</v>
+        <v>9.885790792876339e-05</v>
+      </c>
+      <c r="C112" t="n">
+        <v>2.244787475708457e-06</v>
+      </c>
+      <c r="D112" t="n">
+        <v>136.3157217527925</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0</v>
+      </c>
+      <c r="F112" t="n">
+        <v>22.71928695879874</v>
       </c>
     </row>
     <row r="113">
@@ -1266,7 +2618,19 @@
         <v>4.95027</v>
       </c>
       <c r="B113" t="n">
-        <v>8.991996335800616e-05</v>
+        <v>0.0001017830092516252</v>
+      </c>
+      <c r="C113" t="n">
+        <v>2.429429683131479e-06</v>
+      </c>
+      <c r="D113" t="n">
+        <v>161.9873286375901</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0</v>
+      </c>
+      <c r="F113" t="n">
+        <v>26.99788810626501</v>
       </c>
     </row>
     <row r="114">
@@ -1274,7 +2638,19 @@
         <v>4.95676</v>
       </c>
       <c r="B114" t="n">
-        <v>8.72207491533579e-05</v>
+        <v>9.821637281301712e-05</v>
+      </c>
+      <c r="C114" t="n">
+        <v>2.275637592101906e-06</v>
+      </c>
+      <c r="D114" t="n">
+        <v>153.6102379974909</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0</v>
+      </c>
+      <c r="F114" t="n">
+        <v>25.60170633291514</v>
       </c>
     </row>
     <row r="115">
@@ -1282,7 +2658,19 @@
         <v>4.961869999999999</v>
       </c>
       <c r="B115" t="n">
-        <v>9.13272034122977e-05</v>
+        <v>0.0001016073265582944</v>
+      </c>
+      <c r="C115" t="n">
+        <v>2.340661628671599e-06</v>
+      </c>
+      <c r="D115" t="n">
+        <v>149.1009514218778</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0</v>
+      </c>
+      <c r="F115" t="n">
+        <v>24.85015857031296</v>
       </c>
     </row>
     <row r="116">
@@ -1290,7 +2678,19 @@
         <v>4.96475</v>
       </c>
       <c r="B116" t="n">
-        <v>9.159920413423723e-05</v>
+        <v>0.0001015123476218286</v>
+      </c>
+      <c r="C116" t="n">
+        <v>2.372949679107298e-06</v>
+      </c>
+      <c r="D116" t="n">
+        <v>145.587234821695</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0</v>
+      </c>
+      <c r="F116" t="n">
+        <v>24.26453913694917</v>
       </c>
     </row>
     <row r="117">
@@ -1298,7 +2698,19 @@
         <v>4.96787</v>
       </c>
       <c r="B117" t="n">
-        <v>8.894561048318799e-05</v>
+        <v>0.0001018224192080243</v>
+      </c>
+      <c r="C117" t="n">
+        <v>2.40241609672901e-06</v>
+      </c>
+      <c r="D117" t="n">
+        <v>176.0551666423017</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0</v>
+      </c>
+      <c r="F117" t="n">
+        <v>29.34252777371695</v>
       </c>
     </row>
     <row r="118">
@@ -1306,7 +2718,19 @@
         <v>4.97004</v>
       </c>
       <c r="B118" t="n">
-        <v>0.000102086298592682</v>
+        <v>0.0001132372966571529</v>
+      </c>
+      <c r="C118" t="n">
+        <v>2.707768801355386e-06</v>
+      </c>
+      <c r="D118" t="n">
+        <v>141.3940550231708</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0</v>
+      </c>
+      <c r="F118" t="n">
+        <v>23.56567583719514</v>
       </c>
     </row>
     <row r="119">
@@ -1314,7 +2738,19 @@
         <v>4.9728</v>
       </c>
       <c r="B119" t="n">
-        <v>9.203186160240185e-05</v>
+        <v>0.000104288691360633</v>
+      </c>
+      <c r="C119" t="n">
+        <v>2.349708521251363e-06</v>
+      </c>
+      <c r="D119" t="n">
+        <v>165.2207131299236</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0</v>
+      </c>
+      <c r="F119" t="n">
+        <v>27.53678552165393</v>
       </c>
     </row>
     <row r="120">
@@ -1322,7 +2758,19 @@
         <v>4.97463</v>
       </c>
       <c r="B120" t="n">
-        <v>9.301261917062724e-05</v>
+        <v>0.0001043789646950308</v>
+      </c>
+      <c r="C120" t="n">
+        <v>2.460618037719845e-06</v>
+      </c>
+      <c r="D120" t="n">
+        <v>165.8835144298599</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0</v>
+      </c>
+      <c r="F120" t="n">
+        <v>27.64725240497664</v>
       </c>
     </row>
     <row r="121">
@@ -1330,7 +2778,19 @@
         <v>4.98471</v>
       </c>
       <c r="B121" t="n">
-        <v>9.252507367825784e-05</v>
+        <v>0.0001056165594996735</v>
+      </c>
+      <c r="C121" t="n">
+        <v>2.413312094433955e-06</v>
+      </c>
+      <c r="D121" t="n">
+        <v>178.7684907847602</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0</v>
+      </c>
+      <c r="F121" t="n">
+        <v>29.7947484641267</v>
       </c>
     </row>
     <row r="122">
@@ -1338,7 +2798,19 @@
         <v>4.990069999999999</v>
       </c>
       <c r="B122" t="n">
-        <v>0.0001003419442567487</v>
+        <v>0.0001149511273567958</v>
+      </c>
+      <c r="C122" t="n">
+        <v>2.696854321875506e-06</v>
+      </c>
+      <c r="D122" t="n">
+        <v>177.6608526884748</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0</v>
+      </c>
+      <c r="F122" t="n">
+        <v>29.6101421147458</v>
       </c>
     </row>
     <row r="123">
@@ -1346,7 +2818,19 @@
         <v>4.994669999999999</v>
       </c>
       <c r="B123" t="n">
-        <v>9.242990817178289e-05</v>
+        <v>0.0001080712516098902</v>
+      </c>
+      <c r="C123" t="n">
+        <v>2.426658245807335e-06</v>
+      </c>
+      <c r="D123" t="n">
+        <v>206.0786226856103</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0</v>
+      </c>
+      <c r="F123" t="n">
+        <v>34.34643711426838</v>
       </c>
     </row>
     <row r="124">
@@ -1354,7 +2838,19 @@
         <v>5.00464</v>
       </c>
       <c r="B124" t="n">
-        <v>8.84289761559213e-05</v>
+        <v>0.0001079533003457643</v>
+      </c>
+      <c r="C124" t="n">
+        <v>2.366417139184884e-06</v>
+      </c>
+      <c r="D124" t="n">
+        <v>249.5469250355042</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0</v>
+      </c>
+      <c r="F124" t="n">
+        <v>41.59115417258403</v>
       </c>
     </row>
     <row r="125">
@@ -1362,7 +2858,19 @@
         <v>5.00999</v>
       </c>
       <c r="B125" t="n">
-        <v>0.0001118337476372506</v>
+        <v>0.0001254738878081236</v>
+      </c>
+      <c r="C125" t="n">
+        <v>2.833164921879264e-06</v>
+      </c>
+      <c r="D125" t="n">
+        <v>150.7643543677013</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0</v>
+      </c>
+      <c r="F125" t="n">
+        <v>25.12739239461688</v>
       </c>
     </row>
     <row r="126">
@@ -1370,7 +2878,19 @@
         <v>5.01484</v>
       </c>
       <c r="B126" t="n">
-        <v>0.0001058548106467715</v>
+        <v>0.0001267652727929254</v>
+      </c>
+      <c r="C126" t="n">
+        <v>2.814548747336731e-06</v>
+      </c>
+      <c r="D126" t="n">
+        <v>230.6728978661673</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0</v>
+      </c>
+      <c r="F126" t="n">
+        <v>38.44548297769455</v>
       </c>
     </row>
     <row r="127">
@@ -1378,7 +2898,19 @@
         <v>5.01774</v>
       </c>
       <c r="B127" t="n">
-        <v>0.0001266051198944151</v>
+        <v>0.0001455186245104018</v>
+      </c>
+      <c r="C127" t="n">
+        <v>3.227879745118784e-06</v>
+      </c>
+      <c r="D127" t="n">
+        <v>185.6509846635361</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0</v>
+      </c>
+      <c r="F127" t="n">
+        <v>30.94183077725602</v>
       </c>
     </row>
     <row r="128">
@@ -1386,7 +2918,19 @@
         <v>5.01786</v>
       </c>
       <c r="B128" t="n">
-        <v>0.0001258199782734154</v>
+        <v>0.0001436795539105112</v>
+      </c>
+      <c r="C128" t="n">
+        <v>3.159220403132923e-06</v>
+      </c>
+      <c r="D128" t="n">
+        <v>177.3520332079979</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0</v>
+      </c>
+      <c r="F128" t="n">
+        <v>29.55867220133298</v>
       </c>
     </row>
     <row r="129">
@@ -1394,7 +2938,19 @@
         <v>5.019819999999999</v>
       </c>
       <c r="B129" t="n">
-        <v>0.0001583725432204183</v>
+        <v>0.000176140067739524</v>
+      </c>
+      <c r="C129" t="n">
+        <v>3.972005268377573e-06</v>
+      </c>
+      <c r="D129" t="n">
+        <v>157.577532174185</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0</v>
+      </c>
+      <c r="F129" t="n">
+        <v>26.26292202903083</v>
       </c>
     </row>
     <row r="130">
@@ -1402,7 +2958,19 @@
         <v>5.0248</v>
       </c>
       <c r="B130" t="n">
-        <v>0.0002737095145749836</v>
+        <v>0.0002955036120500933</v>
+      </c>
+      <c r="C130" t="n">
+        <v>6.679314758833324e-06</v>
+      </c>
+      <c r="D130" t="n">
+        <v>109.8423747940935</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0</v>
+      </c>
+      <c r="F130" t="n">
+        <v>18.30706246568225</v>
       </c>
     </row>
     <row r="131">
@@ -1410,7 +2978,19 @@
         <v>5.027830000000001</v>
       </c>
       <c r="B131" t="n">
-        <v>0.0003761150401726111</v>
+        <v>0.000409452656812099</v>
+      </c>
+      <c r="C131" t="n">
+        <v>9.014358418568857e-06</v>
+      </c>
+      <c r="D131" t="n">
+        <v>113.9238763287826</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0</v>
+      </c>
+      <c r="F131" t="n">
+        <v>18.98731272146377</v>
       </c>
     </row>
     <row r="132">
@@ -1418,7 +2998,19 @@
         <v>5.0301</v>
       </c>
       <c r="B132" t="n">
-        <v>0.0003807151606609085</v>
+        <v>0.0004118061478677108</v>
+      </c>
+      <c r="C132" t="n">
+        <v>9.330437578428482e-06</v>
+      </c>
+      <c r="D132" t="n">
+        <v>105.6650464743572</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0</v>
+      </c>
+      <c r="F132" t="n">
+        <v>17.61084107905953</v>
       </c>
     </row>
     <row r="133">
@@ -1426,7 +3018,19 @@
         <v>5.032780000000001</v>
       </c>
       <c r="B133" t="n">
-        <v>0.0003482637815868137</v>
+        <v>0.0003806320523614242</v>
+      </c>
+      <c r="C133" t="n">
+        <v>8.517601659394818e-06</v>
+      </c>
+      <c r="D133" t="n">
+        <v>120.5440105980009</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0</v>
+      </c>
+      <c r="F133" t="n">
+        <v>20.09066843300015</v>
       </c>
     </row>
     <row r="134">
@@ -1434,7 +3038,19 @@
         <v>5.0359</v>
       </c>
       <c r="B134" t="n">
-        <v>0.0003529016402057828</v>
+        <v>0.000379043040064466</v>
+      </c>
+      <c r="C134" t="n">
+        <v>8.453723571499955e-06</v>
+      </c>
+      <c r="D134" t="n">
+        <v>99.86127526086565</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0</v>
+      </c>
+      <c r="F134" t="n">
+        <v>16.64354587681094</v>
       </c>
     </row>
     <row r="135">
@@ -1442,7 +3058,19 @@
         <v>5.03871</v>
       </c>
       <c r="B135" t="n">
-        <v>0.0003422894698816735</v>
+        <v>0.0003704621147665261</v>
+      </c>
+      <c r="C135" t="n">
+        <v>8.373887429355596e-06</v>
+      </c>
+      <c r="D135" t="n">
+        <v>108.476747904549</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0</v>
+      </c>
+      <c r="F135" t="n">
+        <v>18.0794579840915</v>
       </c>
     </row>
     <row r="136">
@@ -1450,7 +3078,19 @@
         <v>5.041980000000001</v>
       </c>
       <c r="B136" t="n">
-        <v>0.0003353838225178696</v>
+        <v>0.0003560316358025082</v>
+      </c>
+      <c r="C136" t="n">
+        <v>8.27664638059467e-06</v>
+      </c>
+      <c r="D136" t="n">
+        <v>87.44568683080783</v>
+      </c>
+      <c r="E136" t="n">
+        <v>1.110223024625157e-16</v>
+      </c>
+      <c r="F136" t="n">
+        <v>14.57428113846797</v>
       </c>
     </row>
     <row r="137">
@@ -1458,7 +3098,19 @@
         <v>5.04479</v>
       </c>
       <c r="B137" t="n">
-        <v>0.000301059826327446</v>
+        <v>0.0003217275707684569</v>
+      </c>
+      <c r="C137" t="n">
+        <v>7.435664115161841e-06</v>
+      </c>
+      <c r="D137" t="n">
+        <v>92.34850297867104</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0</v>
+      </c>
+      <c r="F137" t="n">
+        <v>15.39141716311184</v>
       </c>
     </row>
     <row r="138">
@@ -1466,7 +3118,19 @@
         <v>5.04997</v>
       </c>
       <c r="B138" t="n">
-        <v>0.00022205902017435</v>
+        <v>0.0002437596007435937</v>
+      </c>
+      <c r="C138" t="n">
+        <v>6.030538556135894e-06</v>
+      </c>
+      <c r="D138" t="n">
+        <v>122.41393132704</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0</v>
+      </c>
+      <c r="F138" t="n">
+        <v>20.40232188783999</v>
       </c>
     </row>
     <row r="139">
@@ -1474,7 +3138,19 @@
         <v>5.05484</v>
       </c>
       <c r="B139" t="n">
-        <v>0.0001508886700797617</v>
+        <v>0.0001668154617434925</v>
+      </c>
+      <c r="C139" t="n">
+        <v>4.152737964287808e-06</v>
+      </c>
+      <c r="D139" t="n">
+        <v>135.0137014146651</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0</v>
+      </c>
+      <c r="F139" t="n">
+        <v>22.50228356911084</v>
       </c>
     </row>
     <row r="140">
@@ -1482,7 +3158,19 @@
         <v>5.06488</v>
       </c>
       <c r="B140" t="n">
-        <v>0.0002687898250154542</v>
+        <v>0.0003117421263192755</v>
+      </c>
+      <c r="C140" t="n">
+        <v>6.729398801405282e-06</v>
+      </c>
+      <c r="D140" t="n">
+        <v>194.1514069977454</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0</v>
+      </c>
+      <c r="F140" t="n">
+        <v>32.35856783295757</v>
       </c>
     </row>
     <row r="141">
@@ -1490,7 +3178,19 @@
         <v>5.06991</v>
       </c>
       <c r="B141" t="n">
-        <v>0.0002702465214802857</v>
+        <v>0.0003136126054921695</v>
+      </c>
+      <c r="C141" t="n">
+        <v>6.810997908213474e-06</v>
+      </c>
+      <c r="D141" t="n">
+        <v>187.8566289626719</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0</v>
+      </c>
+      <c r="F141" t="n">
+        <v>31.30943816044531</v>
       </c>
     </row>
     <row r="142">
@@ -1498,7 +3198,19 @@
         <v>5.07448</v>
       </c>
       <c r="B142" t="n">
-        <v>0.0002559676528070868</v>
+        <v>0.0003027510957731135</v>
+      </c>
+      <c r="C142" t="n">
+        <v>6.368902845162058e-06</v>
+      </c>
+      <c r="D142" t="n">
+        <v>224.0460123131093</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0</v>
+      </c>
+      <c r="F142" t="n">
+        <v>37.34100205218488</v>
       </c>
     </row>
     <row r="143">
@@ -1506,7 +3218,19 @@
         <v>5.08419</v>
       </c>
       <c r="B143" t="n">
-        <v>0.0002028337698413619</v>
+        <v>0.0002567690765424268</v>
+      </c>
+      <c r="C143" t="n">
+        <v>5.642330525379945e-06</v>
+      </c>
+      <c r="D143" t="n">
+        <v>311.6546582283362</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0</v>
+      </c>
+      <c r="F143" t="n">
+        <v>51.94244303805603</v>
       </c>
     </row>
     <row r="144">
@@ -1514,7 +3238,19 @@
         <v>5.08999</v>
       </c>
       <c r="B144" t="n">
-        <v>0.0002025439003502336</v>
+        <v>0.0002564103033461672</v>
+      </c>
+      <c r="C144" t="n">
+        <v>5.69442201355082e-06</v>
+      </c>
+      <c r="D144" t="n">
+        <v>317.5477892875816</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0</v>
+      </c>
+      <c r="F144" t="n">
+        <v>52.92463154793026</v>
       </c>
     </row>
     <row r="145">
@@ -1522,7 +3258,19 @@
         <v>5.093719999999999</v>
       </c>
       <c r="B145" t="n">
-        <v>0.000319902568337007</v>
+        <v>0.0004183488378081469</v>
+      </c>
+      <c r="C145" t="n">
+        <v>1.00329944618063e-05</v>
+      </c>
+      <c r="D145" t="n">
+        <v>381.394017023974</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0</v>
+      </c>
+      <c r="F145" t="n">
+        <v>63.56566950399566</v>
       </c>
     </row>
     <row r="146">
@@ -1530,7 +3278,19 @@
         <v>5.09676</v>
       </c>
       <c r="B146" t="n">
-        <v>0.0003939603881741979</v>
+        <v>0.0005367618563120831</v>
+      </c>
+      <c r="C146" t="n">
+        <v>1.228115740943579e-05</v>
+      </c>
+      <c r="D146" t="n">
+        <v>427.309989834263</v>
+      </c>
+      <c r="E146" t="n">
+        <v>0</v>
+      </c>
+      <c r="F146" t="n">
+        <v>71.21833163904383</v>
       </c>
     </row>
     <row r="147">
@@ -1538,7 +3298,19 @@
         <v>5.09889</v>
       </c>
       <c r="B147" t="n">
-        <v>0.0003922237786523685</v>
+        <v>0.0005283419733833148</v>
+      </c>
+      <c r="C147" t="n">
+        <v>1.258168965002163e-05</v>
+      </c>
+      <c r="D147" t="n">
+        <v>399.5561255990792</v>
+      </c>
+      <c r="E147" t="n">
+        <v>0</v>
+      </c>
+      <c r="F147" t="n">
+        <v>66.59268759984653</v>
       </c>
     </row>
     <row r="148">
@@ -1546,7 +3318,19 @@
         <v>5.09999</v>
       </c>
       <c r="B148" t="n">
-        <v>0.0003975612716753263</v>
+        <v>0.0005348727963579036</v>
+      </c>
+      <c r="C148" t="n">
+        <v>1.303961141933996e-05</v>
+      </c>
+      <c r="D148" t="n">
+        <v>397.9369869586595</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0</v>
+      </c>
+      <c r="F148" t="n">
+        <v>66.32283115977658</v>
       </c>
     </row>
     <row r="149">
@@ -1554,7 +3338,19 @@
         <v>5.10043</v>
       </c>
       <c r="B149" t="n">
-        <v>0.0003938662068971017</v>
+        <v>0.000529440350710319</v>
+      </c>
+      <c r="C149" t="n">
+        <v>1.286143741249778e-05</v>
+      </c>
+      <c r="D149" t="n">
+        <v>388.6448238344649</v>
+      </c>
+      <c r="E149" t="n">
+        <v>0</v>
+      </c>
+      <c r="F149" t="n">
+        <v>64.77413730574415</v>
       </c>
     </row>
     <row r="150">
@@ -1562,7 +3358,19 @@
         <v>5.100709999999999</v>
       </c>
       <c r="B150" t="n">
-        <v>0.000407299438573972</v>
+        <v>0.0005363709295439188</v>
+      </c>
+      <c r="C150" t="n">
+        <v>1.28776729829992e-05</v>
+      </c>
+      <c r="D150" t="n">
+        <v>365.3754029073007</v>
+      </c>
+      <c r="E150" t="n">
+        <v>0</v>
+      </c>
+      <c r="F150" t="n">
+        <v>60.89590048455011</v>
       </c>
     </row>
     <row r="151">
@@ -1570,7 +3378,19 @@
         <v>5.10288</v>
       </c>
       <c r="B151" t="n">
-        <v>0.0007905875183111092</v>
+        <v>0.0009968522625748339</v>
+      </c>
+      <c r="C151" t="n">
+        <v>2.199833665058484e-05</v>
+      </c>
+      <c r="D151" t="n">
+        <v>306.6775710834151</v>
+      </c>
+      <c r="E151" t="n">
+        <v>0</v>
+      </c>
+      <c r="F151" t="n">
+        <v>51.11292851390252</v>
       </c>
     </row>
     <row r="152">
@@ -1578,7 +3398,19 @@
         <v>5.10486</v>
       </c>
       <c r="B152" t="n">
-        <v>0.0009062088776316346</v>
+        <v>0.001103298817479354</v>
+      </c>
+      <c r="C152" t="n">
+        <v>2.376187661947417e-05</v>
+      </c>
+      <c r="D152" t="n">
+        <v>259.0342554262616</v>
+      </c>
+      <c r="E152" t="n">
+        <v>0</v>
+      </c>
+      <c r="F152" t="n">
+        <v>43.17237590437693</v>
       </c>
     </row>
     <row r="153">
@@ -1586,7 +3418,19 @@
         <v>5.1069</v>
       </c>
       <c r="B153" t="n">
-        <v>0.0008445022339147092</v>
+        <v>0.001034175604087253</v>
+      </c>
+      <c r="C153" t="n">
+        <v>2.260922882664113e-05</v>
+      </c>
+      <c r="D153" t="n">
+        <v>266.211091414244</v>
+      </c>
+      <c r="E153" t="n">
+        <v>0</v>
+      </c>
+      <c r="F153" t="n">
+        <v>44.36851523570733</v>
       </c>
     </row>
     <row r="154">
@@ -1594,7 +3438,19 @@
         <v>5.10878</v>
       </c>
       <c r="B154" t="n">
-        <v>0.000806324481153004</v>
+        <v>0.0009954687003790152</v>
+      </c>
+      <c r="C154" t="n">
+        <v>2.169802437277015e-05</v>
+      </c>
+      <c r="D154" t="n">
+        <v>273.7536763220941</v>
+      </c>
+      <c r="E154" t="n">
+        <v>0</v>
+      </c>
+      <c r="F154" t="n">
+        <v>45.62561272034901</v>
       </c>
     </row>
     <row r="155">
@@ -1602,7 +3458,19 @@
         <v>5.110040000000001</v>
       </c>
       <c r="B155" t="n">
-        <v>0.0008192341516685873</v>
+        <v>0.001004075793329548</v>
+      </c>
+      <c r="C155" t="n">
+        <v>2.20132878832084e-05</v>
+      </c>
+      <c r="D155" t="n">
+        <v>268.2400487654613</v>
+      </c>
+      <c r="E155" t="n">
+        <v>0</v>
+      </c>
+      <c r="F155" t="n">
+        <v>44.70667479424355</v>
       </c>
     </row>
     <row r="156">
@@ -1610,7 +3478,19 @@
         <v>5.11075</v>
       </c>
       <c r="B156" t="n">
-        <v>0.0007832081909649705</v>
+        <v>0.0009571030738469556</v>
+      </c>
+      <c r="C156" t="n">
+        <v>2.100378820691767e-05</v>
+      </c>
+      <c r="D156" t="n">
+        <v>257.9639676858429</v>
+      </c>
+      <c r="E156" t="n">
+        <v>0</v>
+      </c>
+      <c r="F156" t="n">
+        <v>42.99399461430715</v>
       </c>
     </row>
     <row r="157">
@@ -1618,7 +3498,19 @@
         <v>5.11384</v>
       </c>
       <c r="B157" t="n">
-        <v>0.0007488467718155786</v>
+        <v>0.0009061678039248124</v>
+      </c>
+      <c r="C157" t="n">
+        <v>1.971071408863774e-05</v>
+      </c>
+      <c r="D157" t="n">
+        <v>244.739964775784</v>
+      </c>
+      <c r="E157" t="n">
+        <v>0</v>
+      </c>
+      <c r="F157" t="n">
+        <v>40.78999412929733</v>
       </c>
     </row>
     <row r="158">
@@ -1626,7 +3518,19 @@
         <v>5.1188</v>
       </c>
       <c r="B158" t="n">
-        <v>0.0006693605871718449</v>
+        <v>0.0007758524364980118</v>
+      </c>
+      <c r="C158" t="n">
+        <v>1.65516014369127e-05</v>
+      </c>
+      <c r="D158" t="n">
+        <v>196.5548565773353</v>
+      </c>
+      <c r="E158" t="n">
+        <v>0</v>
+      </c>
+      <c r="F158" t="n">
+        <v>32.75914276288921</v>
       </c>
     </row>
     <row r="159">
@@ -1634,7 +3538,19 @@
         <v>5.123769999999999</v>
       </c>
       <c r="B159" t="n">
-        <v>0.000509619745293011</v>
+        <v>0.0005724600617697702</v>
+      </c>
+      <c r="C159" t="n">
+        <v>1.27223822571603e-05</v>
+      </c>
+      <c r="D159" t="n">
+        <v>153.6076789759173</v>
+      </c>
+      <c r="E159" t="n">
+        <v>0</v>
+      </c>
+      <c r="F159" t="n">
+        <v>25.60127982931954</v>
       </c>
     </row>
     <row r="160">
@@ -1642,7 +3558,19 @@
         <v>5.12852</v>
       </c>
       <c r="B160" t="n">
-        <v>0.0003068294648301683</v>
+        <v>0.0003359802367515425</v>
+      </c>
+      <c r="C160" t="n">
+        <v>7.562053994342714e-06</v>
+      </c>
+      <c r="D160" t="n">
+        <v>124.2406656137708</v>
+      </c>
+      <c r="E160" t="n">
+        <v>0</v>
+      </c>
+      <c r="F160" t="n">
+        <v>20.70677760229514</v>
       </c>
     </row>
     <row r="161">
@@ -1650,7 +3578,19 @@
         <v>5.12994</v>
       </c>
       <c r="B161" t="n">
-        <v>0.000318379975492217</v>
+        <v>0.0003526508975109668</v>
+      </c>
+      <c r="C161" t="n">
+        <v>8.334579362157235e-06</v>
+      </c>
+      <c r="D161" t="n">
+        <v>139.7524085854947</v>
+      </c>
+      <c r="E161" t="n">
+        <v>0</v>
+      </c>
+      <c r="F161" t="n">
+        <v>23.29206809758245</v>
       </c>
     </row>
     <row r="162">
@@ -1658,7 +3598,19 @@
         <v>5.13381</v>
       </c>
       <c r="B162" t="n">
-        <v>0.0001816906015124578</v>
+        <v>0.000193202204726519</v>
+      </c>
+      <c r="C162" t="n">
+        <v>4.738347539321619e-06</v>
+      </c>
+      <c r="D162" t="n">
+        <v>87.80281336140835</v>
+      </c>
+      <c r="E162" t="n">
+        <v>1.110223024625157e-16</v>
+      </c>
+      <c r="F162" t="n">
+        <v>14.63380222690139</v>
       </c>
     </row>
     <row r="163">
@@ -1666,7 +3618,19 @@
         <v>5.13888</v>
       </c>
       <c r="B163" t="n">
-        <v>0.0001610920646704662</v>
+        <v>0.0001684089486941526</v>
+      </c>
+      <c r="C163" t="n">
+        <v>4.363073257842611e-06</v>
+      </c>
+      <c r="D163" t="n">
+        <v>70.94307937889332</v>
+      </c>
+      <c r="E163" t="n">
+        <v>2.619016115090744e-13</v>
+      </c>
+      <c r="F163" t="n">
+        <v>11.82384656314889</v>
       </c>
     </row>
     <row r="164">
@@ -1674,7 +3638,19 @@
         <v>5.14165</v>
       </c>
       <c r="B164" t="n">
-        <v>0.0001619519327356676</v>
+        <v>0.000172685315620915</v>
+      </c>
+      <c r="C164" t="n">
+        <v>4.325679397996546e-06</v>
+      </c>
+      <c r="D164" t="n">
+        <v>97.36056729569069</v>
+      </c>
+      <c r="E164" t="n">
+        <v>0</v>
+      </c>
+      <c r="F164" t="n">
+        <v>16.22676121594845</v>
       </c>
     </row>
     <row r="165">
@@ -1682,7 +3658,19 @@
         <v>5.144740000000001</v>
       </c>
       <c r="B165" t="n">
-        <v>0.0001548926081859507</v>
+        <v>0.0001671741864211927</v>
+      </c>
+      <c r="C165" t="n">
+        <v>4.239092839529922e-06</v>
+      </c>
+      <c r="D165" t="n">
+        <v>120.7793810212902</v>
+      </c>
+      <c r="E165" t="n">
+        <v>0</v>
+      </c>
+      <c r="F165" t="n">
+        <v>20.12989683688171</v>
       </c>
     </row>
     <row r="166">
@@ -1690,7 +3678,19 @@
         <v>5.14799</v>
       </c>
       <c r="B166" t="n">
-        <v>0.0001515073722946818</v>
+        <v>0.000165640106938811</v>
+      </c>
+      <c r="C166" t="n">
+        <v>4.261250438742269e-06</v>
+      </c>
+      <c r="D166" t="n">
+        <v>134.0214171659217</v>
+      </c>
+      <c r="E166" t="n">
+        <v>0</v>
+      </c>
+      <c r="F166" t="n">
+        <v>22.33690286098696</v>
       </c>
     </row>
     <row r="167">
@@ -1698,7 +3698,19 @@
         <v>5.15001</v>
       </c>
       <c r="B167" t="n">
-        <v>0.0001633433324310953</v>
+        <v>0.0001764441183896408</v>
+      </c>
+      <c r="C167" t="n">
+        <v>4.709966969379313e-06</v>
+      </c>
+      <c r="D167" t="n">
+        <v>114.1182469895486</v>
+      </c>
+      <c r="E167" t="n">
+        <v>0</v>
+      </c>
+      <c r="F167" t="n">
+        <v>19.01970783159144</v>
       </c>
     </row>
     <row r="168">
@@ -1706,7 +3718,19 @@
         <v>5.150980000000001</v>
       </c>
       <c r="B168" t="n">
-        <v>0.0001565596506342805</v>
+        <v>0.0001712659557942547</v>
+      </c>
+      <c r="C168" t="n">
+        <v>4.187350654007173e-06</v>
+      </c>
+      <c r="D168" t="n">
+        <v>147.1960859247723</v>
+      </c>
+      <c r="E168" t="n">
+        <v>0</v>
+      </c>
+      <c r="F168" t="n">
+        <v>24.53268098746205</v>
       </c>
     </row>
     <row r="169">
@@ -1714,7 +3738,19 @@
         <v>5.15704</v>
       </c>
       <c r="B169" t="n">
-        <v>0.000152015136811072</v>
+        <v>0.000172988435119014</v>
+      </c>
+      <c r="C169" t="n">
+        <v>4.132950672154854e-06</v>
+      </c>
+      <c r="D169" t="n">
+        <v>188.7093493157375</v>
+      </c>
+      <c r="E169" t="n">
+        <v>0</v>
+      </c>
+      <c r="F169" t="n">
+        <v>31.45155821928958</v>
       </c>
     </row>
     <row r="170">
@@ -1722,7 +3758,19 @@
         <v>5.15937</v>
       </c>
       <c r="B170" t="n">
-        <v>0.0001555307031763435</v>
+        <v>0.0001813979662275383</v>
+      </c>
+      <c r="C170" t="n">
+        <v>4.182621485043789e-06</v>
+      </c>
+      <c r="D170" t="n">
+        <v>226.6602219754411</v>
+      </c>
+      <c r="E170" t="n">
+        <v>0</v>
+      </c>
+      <c r="F170" t="n">
+        <v>37.77670366257352</v>
       </c>
     </row>
     <row r="171">
@@ -1730,7 +3778,19 @@
         <v>5.17005</v>
       </c>
       <c r="B171" t="n">
-        <v>0.0001572082925341357</v>
+        <v>0.0001857146656882324</v>
+      </c>
+      <c r="C171" t="n">
+        <v>4.429125939744724e-06</v>
+      </c>
+      <c r="D171" t="n">
+        <v>225.0540450768999</v>
+      </c>
+      <c r="E171" t="n">
+        <v>0</v>
+      </c>
+      <c r="F171" t="n">
+        <v>37.50900751281664</v>
       </c>
     </row>
     <row r="172">
@@ -1738,7 +3798,19 @@
         <v>5.18984</v>
       </c>
       <c r="B172" t="n">
-        <v>0.0001597613389786096</v>
+        <v>0.0001988992077784046</v>
+      </c>
+      <c r="C172" t="n">
+        <v>4.392874011619891e-06</v>
+      </c>
+      <c r="D172" t="n">
+        <v>306.2071662730966</v>
+      </c>
+      <c r="E172" t="n">
+        <v>0</v>
+      </c>
+      <c r="F172" t="n">
+        <v>51.03452771218277</v>
       </c>
     </row>
     <row r="173">
@@ -1746,7 +3818,19 @@
         <v>5.210030000000001</v>
       </c>
       <c r="B173" t="n">
-        <v>0.0001845517691534271</v>
+        <v>0.0002377143708579397</v>
+      </c>
+      <c r="C173" t="n">
+        <v>5.334801875649592e-06</v>
+      </c>
+      <c r="D173" t="n">
+        <v>376.0600002205829</v>
+      </c>
+      <c r="E173" t="n">
+        <v>0</v>
+      </c>
+      <c r="F173" t="n">
+        <v>62.67666670343049</v>
       </c>
     </row>
     <row r="174">
@@ -1754,7 +3838,19 @@
         <v>5.23003</v>
       </c>
       <c r="B174" t="n">
-        <v>0.0002133095886518805</v>
+        <v>0.0002951694306399502</v>
+      </c>
+      <c r="C174" t="n">
+        <v>7.114206711560735e-06</v>
+      </c>
+      <c r="D174" t="n">
+        <v>496.3638432397078</v>
+      </c>
+      <c r="E174" t="n">
+        <v>0</v>
+      </c>
+      <c r="F174" t="n">
+        <v>82.72730720661797</v>
       </c>
     </row>
     <row r="175">
@@ -1762,7 +3858,19 @@
         <v>5.2395</v>
       </c>
       <c r="B175" t="n">
-        <v>0.0002607810337555076</v>
+        <v>0.0003581701086412032</v>
+      </c>
+      <c r="C175" t="n">
+        <v>8.344624284734698e-06</v>
+      </c>
+      <c r="D175" t="n">
+        <v>629.8023530961068</v>
+      </c>
+      <c r="E175" t="n">
+        <v>0</v>
+      </c>
+      <c r="F175" t="n">
+        <v>104.9670588493511</v>
       </c>
     </row>
     <row r="176">
@@ -1770,7 +3878,19 @@
         <v>5.24306</v>
       </c>
       <c r="B176" t="n">
-        <v>0.0002655144339302796</v>
+        <v>0.000383983466825272</v>
+      </c>
+      <c r="C176" t="n">
+        <v>9.628653280470283e-06</v>
+      </c>
+      <c r="D176" t="n">
+        <v>637.8061359584702</v>
+      </c>
+      <c r="E176" t="n">
+        <v>0</v>
+      </c>
+      <c r="F176" t="n">
+        <v>106.301022659745</v>
       </c>
     </row>
     <row r="177">
@@ -1778,7 +3898,19 @@
         <v>5.25013</v>
       </c>
       <c r="B177" t="n">
-        <v>0.0003365367016197188</v>
+        <v>0.0004773281560477716</v>
+      </c>
+      <c r="C177" t="n">
+        <v>1.253596890639892e-05</v>
+      </c>
+      <c r="D177" t="n">
+        <v>688.7391646395356</v>
+      </c>
+      <c r="E177" t="n">
+        <v>0</v>
+      </c>
+      <c r="F177" t="n">
+        <v>114.7898607732559</v>
       </c>
     </row>
     <row r="178">
@@ -1786,7 +3918,19 @@
         <v>5.25994</v>
       </c>
       <c r="B178" t="n">
-        <v>0.0004152348756469868</v>
+        <v>0.0006003960270513318</v>
+      </c>
+      <c r="C178" t="n">
+        <v>1.549725284729069e-05</v>
+      </c>
+      <c r="D178" t="n">
+        <v>736.2271560329664</v>
+      </c>
+      <c r="E178" t="n">
+        <v>0</v>
+      </c>
+      <c r="F178" t="n">
+        <v>122.7045260054944</v>
       </c>
     </row>
     <row r="179">
@@ -1794,7 +3938,19 @@
         <v>5.26504</v>
       </c>
       <c r="B179" t="n">
-        <v>0.0004687505491468943</v>
+        <v>0.0006800206695050706</v>
+      </c>
+      <c r="C179" t="n">
+        <v>1.807667874543422e-05</v>
+      </c>
+      <c r="D179" t="n">
+        <v>670.7326699617818</v>
+      </c>
+      <c r="E179" t="n">
+        <v>0</v>
+      </c>
+      <c r="F179" t="n">
+        <v>111.7887783269636</v>
       </c>
     </row>
     <row r="180">
@@ -1802,7 +3958,19 @@
         <v>5.26998</v>
       </c>
       <c r="B180" t="n">
-        <v>0.0004898657582764926</v>
+        <v>0.0007424930751904894</v>
+      </c>
+      <c r="C180" t="n">
+        <v>1.949197913776352e-05</v>
+      </c>
+      <c r="D180" t="n">
+        <v>682.7066994023085</v>
+      </c>
+      <c r="E180" t="n">
+        <v>0</v>
+      </c>
+      <c r="F180" t="n">
+        <v>113.7844499003847</v>
       </c>
     </row>
     <row r="181">
@@ -1810,7 +3978,19 @@
         <v>5.27496</v>
       </c>
       <c r="B181" t="n">
-        <v>0.0005911699460475336</v>
+        <v>0.0009167115501318178</v>
+      </c>
+      <c r="C181" t="n">
+        <v>2.349405799404985e-05</v>
+      </c>
+      <c r="D181" t="n">
+        <v>658.3412920952098</v>
+      </c>
+      <c r="E181" t="n">
+        <v>0</v>
+      </c>
+      <c r="F181" t="n">
+        <v>109.723548682535</v>
       </c>
     </row>
     <row r="182">
@@ -1818,7 +3998,19 @@
         <v>5.27502</v>
       </c>
       <c r="B182" t="n">
-        <v>0.0006163163998402099</v>
+        <v>0.0009234022386578036</v>
+      </c>
+      <c r="C182" t="n">
+        <v>2.211705714126344e-05</v>
+      </c>
+      <c r="D182" t="n">
+        <v>680.9313902769816</v>
+      </c>
+      <c r="E182" t="n">
+        <v>0</v>
+      </c>
+      <c r="F182" t="n">
+        <v>113.4885650461636</v>
       </c>
     </row>
     <row r="183">
@@ -1826,7 +4018,19 @@
         <v>5.279809999999999</v>
       </c>
       <c r="B183" t="n">
-        <v>0.001013985105483339</v>
+        <v>0.001489583120048046</v>
+      </c>
+      <c r="C183" t="n">
+        <v>3.593774403055853e-05</v>
+      </c>
+      <c r="D183" t="n">
+        <v>531.2889995129674</v>
+      </c>
+      <c r="E183" t="n">
+        <v>0</v>
+      </c>
+      <c r="F183" t="n">
+        <v>88.54816658549457</v>
       </c>
     </row>
     <row r="184">
@@ -1834,7 +4038,19 @@
         <v>5.28495</v>
       </c>
       <c r="B184" t="n">
-        <v>0.001350933317660252</v>
+        <v>0.001904160488628288</v>
+      </c>
+      <c r="C184" t="n">
+        <v>4.500595036979289e-05</v>
+      </c>
+      <c r="D184" t="n">
+        <v>470.8661668164298</v>
+      </c>
+      <c r="E184" t="n">
+        <v>0</v>
+      </c>
+      <c r="F184" t="n">
+        <v>78.47769446940497</v>
       </c>
     </row>
     <row r="185">
@@ -1842,7 +4058,19 @@
         <v>5.29016</v>
       </c>
       <c r="B185" t="n">
-        <v>0.001707681465381394</v>
+        <v>0.002424920197877736</v>
+      </c>
+      <c r="C185" t="n">
+        <v>5.422989029180812e-05</v>
+      </c>
+      <c r="D185" t="n">
+        <v>507.4012547880177</v>
+      </c>
+      <c r="E185" t="n">
+        <v>0</v>
+      </c>
+      <c r="F185" t="n">
+        <v>84.56687579800295</v>
       </c>
     </row>
     <row r="186">
@@ -1850,7 +4078,19 @@
         <v>5.29294</v>
       </c>
       <c r="B186" t="n">
-        <v>0.001864507442127862</v>
+        <v>0.002713196161722156</v>
+      </c>
+      <c r="C186" t="n">
+        <v>6.119327574088796e-05</v>
+      </c>
+      <c r="D186" t="n">
+        <v>555.7029742228787</v>
+      </c>
+      <c r="E186" t="n">
+        <v>0</v>
+      </c>
+      <c r="F186" t="n">
+        <v>92.61716237047978</v>
       </c>
     </row>
     <row r="187">
@@ -1858,7 +4098,19 @@
         <v>5.29767</v>
       </c>
       <c r="B187" t="n">
-        <v>0.001906560668545388</v>
+        <v>0.002706841216861003</v>
+      </c>
+      <c r="C187" t="n">
+        <v>5.906650656817128e-05</v>
+      </c>
+      <c r="D187" t="n">
+        <v>525.2853733418769</v>
+      </c>
+      <c r="E187" t="n">
+        <v>0</v>
+      </c>
+      <c r="F187" t="n">
+        <v>87.54756222364615</v>
       </c>
     </row>
     <row r="188">
@@ -1866,7 +4118,19 @@
         <v>5.29972</v>
       </c>
       <c r="B188" t="n">
-        <v>0.001953038720970975</v>
+        <v>0.002702998857558994</v>
+      </c>
+      <c r="C188" t="n">
+        <v>5.905483191208339e-05</v>
+      </c>
+      <c r="D188" t="n">
+        <v>489.178434626265</v>
+      </c>
+      <c r="E188" t="n">
+        <v>0</v>
+      </c>
+      <c r="F188" t="n">
+        <v>81.5297391043775</v>
       </c>
     </row>
     <row r="189">
@@ -1874,7 +4138,19 @@
         <v>5.30238</v>
       </c>
       <c r="B189" t="n">
-        <v>0.002015403702902516</v>
+        <v>0.002771018698664693</v>
+      </c>
+      <c r="C189" t="n">
+        <v>6.022067031451885e-05</v>
+      </c>
+      <c r="D189" t="n">
+        <v>459.8069557280335</v>
+      </c>
+      <c r="E189" t="n">
+        <v>0</v>
+      </c>
+      <c r="F189" t="n">
+        <v>76.63449262133891</v>
       </c>
     </row>
     <row r="190">
@@ -1882,7 +4158,19 @@
         <v>5.30823</v>
       </c>
       <c r="B190" t="n">
-        <v>0.001606332080294559</v>
+        <v>0.002212958950092961</v>
+      </c>
+      <c r="C190" t="n">
+        <v>4.734374325996056e-05</v>
+      </c>
+      <c r="D190" t="n">
+        <v>463.6026357573333</v>
+      </c>
+      <c r="E190" t="n">
+        <v>0</v>
+      </c>
+      <c r="F190" t="n">
+        <v>77.26710595955555</v>
       </c>
     </row>
     <row r="191">
@@ -1890,7 +4178,19 @@
         <v>5.312880000000001</v>
       </c>
       <c r="B191" t="n">
-        <v>0.001279117032232797</v>
+        <v>0.001718420510862075</v>
+      </c>
+      <c r="C191" t="n">
+        <v>3.704384790297871e-05</v>
+      </c>
+      <c r="D191" t="n">
+        <v>417.2733613750969</v>
+      </c>
+      <c r="E191" t="n">
+        <v>0</v>
+      </c>
+      <c r="F191" t="n">
+        <v>69.54556022918281</v>
       </c>
     </row>
     <row r="192">
@@ -1898,7 +4198,19 @@
         <v>5.31752</v>
       </c>
       <c r="B192" t="n">
-        <v>0.001019957600570062</v>
+        <v>0.001301094286923924</v>
+      </c>
+      <c r="C192" t="n">
+        <v>2.788532101205443e-05</v>
+      </c>
+      <c r="D192" t="n">
+        <v>331.5053465634159</v>
+      </c>
+      <c r="E192" t="n">
+        <v>0</v>
+      </c>
+      <c r="F192" t="n">
+        <v>55.25089109390264</v>
       </c>
     </row>
     <row r="193">
@@ -1906,7 +4218,19 @@
         <v>5.32281</v>
       </c>
       <c r="B193" t="n">
-        <v>0.0007677254968112406</v>
+        <v>0.0009438859070595261</v>
+      </c>
+      <c r="C193" t="n">
+        <v>2.030081078259969e-05</v>
+      </c>
+      <c r="D193" t="n">
+        <v>275.6120544058618</v>
+      </c>
+      <c r="E193" t="n">
+        <v>0</v>
+      </c>
+      <c r="F193" t="n">
+        <v>45.93534240097697</v>
       </c>
     </row>
     <row r="194">
@@ -1914,7 +4238,19 @@
         <v>5.32768</v>
       </c>
       <c r="B194" t="n">
-        <v>0.0005829380928863986</v>
+        <v>0.0006951984056995746</v>
+      </c>
+      <c r="C194" t="n">
+        <v>1.529532924994069e-05</v>
+      </c>
+      <c r="D194" t="n">
+        <v>231.4891925453038</v>
+      </c>
+      <c r="E194" t="n">
+        <v>0</v>
+      </c>
+      <c r="F194" t="n">
+        <v>38.58153209088396</v>
       </c>
     </row>
     <row r="195">
@@ -1922,7 +4258,19 @@
         <v>5.33288</v>
       </c>
       <c r="B195" t="n">
-        <v>0.0004713402811748919</v>
+        <v>0.0005409694956575566</v>
+      </c>
+      <c r="C195" t="n">
+        <v>1.236007751699249e-05</v>
+      </c>
+      <c r="D195" t="n">
+        <v>192.5238673026379</v>
+      </c>
+      <c r="E195" t="n">
+        <v>0</v>
+      </c>
+      <c r="F195" t="n">
+        <v>32.08731121710631</v>
       </c>
     </row>
     <row r="196">
@@ -1930,7 +4278,19 @@
         <v>5.33291</v>
       </c>
       <c r="B196" t="n">
-        <v>0.0004999271771630422</v>
+        <v>0.0005645262650003005</v>
+      </c>
+      <c r="C196" t="n">
+        <v>1.228661706345148e-05</v>
+      </c>
+      <c r="D196" t="n">
+        <v>174.1961425302129</v>
+      </c>
+      <c r="E196" t="n">
+        <v>0</v>
+      </c>
+      <c r="F196" t="n">
+        <v>29.03269042170215</v>
       </c>
     </row>
     <row r="197">
@@ -1938,7 +4298,19 @@
         <v>5.33747</v>
       </c>
       <c r="B197" t="n">
-        <v>0.0004634899678709074</v>
+        <v>0.0005130036880147902</v>
+      </c>
+      <c r="C197" t="n">
+        <v>1.09923207166449e-05</v>
+      </c>
+      <c r="D197" t="n">
+        <v>158.4418853842431</v>
+      </c>
+      <c r="E197" t="n">
+        <v>0</v>
+      </c>
+      <c r="F197" t="n">
+        <v>26.40698089737385</v>
       </c>
     </row>
     <row r="198">
@@ -1946,7 +4318,19 @@
         <v>5.34274</v>
       </c>
       <c r="B198" t="n">
-        <v>0.0004237094774843919</v>
+        <v>0.0004700817644846591</v>
+      </c>
+      <c r="C198" t="n">
+        <v>1.016375558769181e-05</v>
+      </c>
+      <c r="D198" t="n">
+        <v>163.0606182066948</v>
+      </c>
+      <c r="E198" t="n">
+        <v>0</v>
+      </c>
+      <c r="F198" t="n">
+        <v>27.17676970111579</v>
       </c>
     </row>
     <row r="199">
@@ -1954,7 +4338,19 @@
         <v>5.34293</v>
       </c>
       <c r="B199" t="n">
-        <v>0.0004293661784858342</v>
+        <v>0.0004714868115560533</v>
+      </c>
+      <c r="C199" t="n">
+        <v>9.974003308218247e-06</v>
+      </c>
+      <c r="D199" t="n">
+        <v>156.9172940869021</v>
+      </c>
+      <c r="E199" t="n">
+        <v>0</v>
+      </c>
+      <c r="F199" t="n">
+        <v>26.15288234781701</v>
       </c>
     </row>
     <row r="200">
@@ -1962,7 +4358,19 @@
         <v>5.34694</v>
       </c>
       <c r="B200" t="n">
-        <v>0.0003855578524475051</v>
+        <v>0.0004218130051552906</v>
+      </c>
+      <c r="C200" t="n">
+        <v>8.95479277187657e-06</v>
+      </c>
+      <c r="D200" t="n">
+        <v>146.414926320037</v>
+      </c>
+      <c r="E200" t="n">
+        <v>0</v>
+      </c>
+      <c r="F200" t="n">
+        <v>24.40248772000616</v>
       </c>
     </row>
     <row r="201">
@@ -1970,7 +4378,19 @@
         <v>5.34826</v>
       </c>
       <c r="B201" t="n">
-        <v>0.0003830333633090528</v>
+        <v>0.0004175939408146243</v>
+      </c>
+      <c r="C201" t="n">
+        <v>8.714516768101569e-06</v>
+      </c>
+      <c r="D201" t="n">
+        <v>155.2758434498508</v>
+      </c>
+      <c r="E201" t="n">
+        <v>0</v>
+      </c>
+      <c r="F201" t="n">
+        <v>25.8793072416418</v>
       </c>
     </row>
     <row r="202">
@@ -1978,7 +4398,19 @@
         <v>5.34858</v>
       </c>
       <c r="B202" t="n">
-        <v>0.0003789396536795327</v>
+        <v>0.000412490822884591</v>
+      </c>
+      <c r="C202" t="n">
+        <v>8.565365069113193e-06</v>
+      </c>
+      <c r="D202" t="n">
+        <v>143.7332268109048</v>
+      </c>
+      <c r="E202" t="n">
+        <v>0</v>
+      </c>
+      <c r="F202" t="n">
+        <v>23.95553780181747</v>
       </c>
     </row>
     <row r="203">
@@ -1986,7 +4418,19 @@
         <v>5.35205</v>
       </c>
       <c r="B203" t="n">
-        <v>0.0003929296323386035</v>
+        <v>0.0004305549758683082</v>
+      </c>
+      <c r="C203" t="n">
+        <v>9.555193555910783e-06</v>
+      </c>
+      <c r="D203" t="n">
+        <v>135.587776546841</v>
+      </c>
+      <c r="E203" t="n">
+        <v>0</v>
+      </c>
+      <c r="F203" t="n">
+        <v>22.59796275780683</v>
       </c>
     </row>
     <row r="204">
@@ -1994,7 +4438,19 @@
         <v>5.3536</v>
       </c>
       <c r="B204" t="n">
-        <v>0.0003636884649142605</v>
+        <v>0.0004007062589737745</v>
+      </c>
+      <c r="C204" t="n">
+        <v>8.287444518060108e-06</v>
+      </c>
+      <c r="D204" t="n">
+        <v>164.7233441524603</v>
+      </c>
+      <c r="E204" t="n">
+        <v>0</v>
+      </c>
+      <c r="F204" t="n">
+        <v>27.45389069207672</v>
       </c>
     </row>
     <row r="205">
@@ -2002,7 +4458,19 @@
         <v>5.3579</v>
       </c>
       <c r="B205" t="n">
-        <v>0.0004375822120683958</v>
+        <v>0.0004946583903336859</v>
+      </c>
+      <c r="C205" t="n">
+        <v>1.104840832185016e-05</v>
+      </c>
+      <c r="D205" t="n">
+        <v>163.2836757993366</v>
+      </c>
+      <c r="E205" t="n">
+        <v>0</v>
+      </c>
+      <c r="F205" t="n">
+        <v>27.2139459665561</v>
       </c>
     </row>
     <row r="206">
@@ -2010,7 +4478,19 @@
         <v>5.35797</v>
       </c>
       <c r="B206" t="n">
-        <v>0.0004328528296106079</v>
+        <v>0.0005016136013112694</v>
+      </c>
+      <c r="C206" t="n">
+        <v>1.062201614144367e-05</v>
+      </c>
+      <c r="D206" t="n">
+        <v>201.2938900385063</v>
+      </c>
+      <c r="E206" t="n">
+        <v>0</v>
+      </c>
+      <c r="F206" t="n">
+        <v>33.54898167308438</v>
       </c>
     </row>
     <row r="207">
@@ -2018,7 +4498,19 @@
         <v>5.359830000000001</v>
       </c>
       <c r="B207" t="n">
-        <v>0.0004146906305019279</v>
+        <v>0.000473303542152235</v>
+      </c>
+      <c r="C207" t="n">
+        <v>1.057472781202652e-05</v>
+      </c>
+      <c r="D207" t="n">
+        <v>172.6645254786592</v>
+      </c>
+      <c r="E207" t="n">
+        <v>0</v>
+      </c>
+      <c r="F207" t="n">
+        <v>28.77742091310986</v>
       </c>
     </row>
     <row r="208">
@@ -2026,7 +4518,19 @@
         <v>5.36189</v>
       </c>
       <c r="B208" t="n">
-        <v>0.0004162311204910539</v>
+        <v>0.0004718229177141158</v>
+      </c>
+      <c r="C208" t="n">
+        <v>1.05418298160353e-05</v>
+      </c>
+      <c r="D208" t="n">
+        <v>167.6861453732945</v>
+      </c>
+      <c r="E208" t="n">
+        <v>0</v>
+      </c>
+      <c r="F208" t="n">
+        <v>27.94769089554908</v>
       </c>
     </row>
     <row r="209">
@@ -2034,7 +4538,19 @@
         <v>5.36386</v>
       </c>
       <c r="B209" t="n">
-        <v>0.0003948631347085716</v>
+        <v>0.0004590002931965207</v>
+      </c>
+      <c r="C209" t="n">
+        <v>1.033792900732061e-05</v>
+      </c>
+      <c r="D209" t="n">
+        <v>195.3041297071508</v>
+      </c>
+      <c r="E209" t="n">
+        <v>0</v>
+      </c>
+      <c r="F209" t="n">
+        <v>32.55068828452513</v>
       </c>
     </row>
     <row r="210">
@@ -2042,7 +4558,19 @@
         <v>5.36605</v>
       </c>
       <c r="B210" t="n">
-        <v>0.0003998809541459967</v>
+        <v>0.0004564434136275029</v>
+      </c>
+      <c r="C210" t="n">
+        <v>1.031788226376689e-05</v>
+      </c>
+      <c r="D210" t="n">
+        <v>174.2512623534793</v>
+      </c>
+      <c r="E210" t="n">
+        <v>0</v>
+      </c>
+      <c r="F210" t="n">
+        <v>29.04187705891322</v>
       </c>
     </row>
     <row r="211">
@@ -2050,7 +4578,19 @@
         <v>5.368040000000001</v>
       </c>
       <c r="B211" t="n">
-        <v>0.0004051835115582793</v>
+        <v>0.0004613876183605471</v>
+      </c>
+      <c r="C211" t="n">
+        <v>9.749880039669824e-06</v>
+      </c>
+      <c r="D211" t="n">
+        <v>172.9370594301291</v>
+      </c>
+      <c r="E211" t="n">
+        <v>0</v>
+      </c>
+      <c r="F211" t="n">
+        <v>28.82284323835485</v>
       </c>
     </row>
     <row r="212">
@@ -2058,7 +4598,19 @@
         <v>5.36827</v>
       </c>
       <c r="B212" t="n">
-        <v>0.0003923306482971324</v>
+        <v>0.0004582168081715085</v>
+      </c>
+      <c r="C212" t="n">
+        <v>9.717145464817008e-06</v>
+      </c>
+      <c r="D212" t="n">
+        <v>208.2541183293618</v>
+      </c>
+      <c r="E212" t="n">
+        <v>0</v>
+      </c>
+      <c r="F212" t="n">
+        <v>34.7090197215603</v>
       </c>
     </row>
     <row r="213">
@@ -2066,7 +4618,19 @@
         <v>5.36965</v>
       </c>
       <c r="B213" t="n">
-        <v>0.00040317440647129</v>
+        <v>0.0004572213450841412</v>
+      </c>
+      <c r="C213" t="n">
+        <v>1.010288716994035e-05</v>
+      </c>
+      <c r="D213" t="n">
+        <v>164.4132949896605</v>
+      </c>
+      <c r="E213" t="n">
+        <v>0</v>
+      </c>
+      <c r="F213" t="n">
+        <v>27.40221583161009</v>
       </c>
     </row>
     <row r="214">
@@ -2074,7 +4638,19 @@
         <v>5.371490000000001</v>
       </c>
       <c r="B214" t="n">
-        <v>0.0004005639985381214</v>
+        <v>0.0004662404610325812</v>
+      </c>
+      <c r="C214" t="n">
+        <v>9.876529506382116e-06</v>
+      </c>
+      <c r="D214" t="n">
+        <v>210.0696338097764</v>
+      </c>
+      <c r="E214" t="n">
+        <v>0</v>
+      </c>
+      <c r="F214" t="n">
+        <v>35.01160563496273</v>
       </c>
     </row>
     <row r="215">
@@ -2082,7 +4658,19 @@
         <v>5.373419999999999</v>
       </c>
       <c r="B215" t="n">
-        <v>0.000370184372608204</v>
+        <v>0.0004351787938012401</v>
+      </c>
+      <c r="C215" t="n">
+        <v>9.076517338043563e-06</v>
+      </c>
+      <c r="D215" t="n">
+        <v>218.8211641175729</v>
+      </c>
+      <c r="E215" t="n">
+        <v>0</v>
+      </c>
+      <c r="F215" t="n">
+        <v>36.47019401959549</v>
       </c>
     </row>
     <row r="216">
@@ -2090,7 +4678,19 @@
         <v>5.3748</v>
       </c>
       <c r="B216" t="n">
-        <v>0.0003538689997739375</v>
+        <v>0.000406030822949362</v>
+      </c>
+      <c r="C216" t="n">
+        <v>8.410827957610383e-06</v>
+      </c>
+      <c r="D216" t="n">
+        <v>184.2657115020722</v>
+      </c>
+      <c r="E216" t="n">
+        <v>0</v>
+      </c>
+      <c r="F216" t="n">
+        <v>30.71095191701204</v>
       </c>
     </row>
     <row r="217">
@@ -2098,7 +4698,19 @@
         <v>5.38009</v>
       </c>
       <c r="B217" t="n">
-        <v>0.0003166830361928982</v>
+        <v>0.0003545203119639347</v>
+      </c>
+      <c r="C217" t="n">
+        <v>7.297489814104198e-06</v>
+      </c>
+      <c r="D217" t="n">
+        <v>153.0265432452188</v>
+      </c>
+      <c r="E217" t="n">
+        <v>0</v>
+      </c>
+      <c r="F217" t="n">
+        <v>25.50442387420314</v>
       </c>
     </row>
     <row r="218">
@@ -2106,7 +4718,19 @@
         <v>5.382919999999999</v>
       </c>
       <c r="B218" t="n">
-        <v>0.0003046789758700292</v>
+        <v>0.000340301715867454</v>
+      </c>
+      <c r="C218" t="n">
+        <v>6.930673655628074e-06</v>
+      </c>
+      <c r="D218" t="n">
+        <v>152.9744876174136</v>
+      </c>
+      <c r="E218" t="n">
+        <v>0</v>
+      </c>
+      <c r="F218" t="n">
+        <v>25.4957479362356</v>
       </c>
     </row>
     <row r="219">
@@ -2114,7 +4738,19 @@
         <v>5.38334</v>
       </c>
       <c r="B219" t="n">
-        <v>0.0003097885492502145</v>
+        <v>0.0003487106898307806</v>
+      </c>
+      <c r="C219" t="n">
+        <v>7.073138983764325e-06</v>
+      </c>
+      <c r="D219" t="n">
+        <v>166.1519166142106</v>
+      </c>
+      <c r="E219" t="n">
+        <v>0</v>
+      </c>
+      <c r="F219" t="n">
+        <v>27.69198610236843</v>
       </c>
     </row>
     <row r="220">
@@ -2122,7 +4758,19 @@
         <v>5.383859999999999</v>
       </c>
       <c r="B220" t="n">
-        <v>0.0003056853754346679</v>
+        <v>0.0003402181740619595</v>
+      </c>
+      <c r="C220" t="n">
+        <v>6.846697086435782e-06</v>
+      </c>
+      <c r="D220" t="n">
+        <v>149.5220339566676</v>
+      </c>
+      <c r="E220" t="n">
+        <v>0</v>
+      </c>
+      <c r="F220" t="n">
+        <v>24.92033899277794</v>
       </c>
     </row>
     <row r="221">
@@ -2130,7 +4778,19 @@
         <v>5.38596</v>
       </c>
       <c r="B221" t="n">
-        <v>0.0003008309869423906</v>
+        <v>0.0003332410552919283</v>
+      </c>
+      <c r="C221" t="n">
+        <v>6.673197449937607e-06</v>
+      </c>
+      <c r="D221" t="n">
+        <v>141.4047995355246</v>
+      </c>
+      <c r="E221" t="n">
+        <v>0</v>
+      </c>
+      <c r="F221" t="n">
+        <v>23.5674665892541</v>
       </c>
     </row>
     <row r="222">
@@ -2138,7 +4798,19 @@
         <v>5.38986</v>
       </c>
       <c r="B222" t="n">
-        <v>0.0002974630647031306</v>
+        <v>0.0003296780192257165</v>
+      </c>
+      <c r="C222" t="n">
+        <v>6.538957308464848e-06</v>
+      </c>
+      <c r="D222" t="n">
+        <v>140.1033091321463</v>
+      </c>
+      <c r="E222" t="n">
+        <v>0</v>
+      </c>
+      <c r="F222" t="n">
+        <v>23.35055152202438</v>
       </c>
     </row>
     <row r="223">
@@ -2146,7 +4818,19 @@
         <v>5.39308</v>
       </c>
       <c r="B223" t="n">
-        <v>0.0003022143651702866</v>
+        <v>0.0003368628112854005</v>
+      </c>
+      <c r="C223" t="n">
+        <v>6.727581559607968e-06</v>
+      </c>
+      <c r="D223" t="n">
+        <v>151.6487722981688</v>
+      </c>
+      <c r="E223" t="n">
+        <v>0</v>
+      </c>
+      <c r="F223" t="n">
+        <v>25.27479538302812</v>
       </c>
     </row>
     <row r="224">
@@ -2154,7 +4838,19 @@
         <v>5.40341</v>
       </c>
       <c r="B224" t="n">
-        <v>0.0003240846721518322</v>
+        <v>0.000356321353156044</v>
+      </c>
+      <c r="C224" t="n">
+        <v>7.06402990328907e-06</v>
+      </c>
+      <c r="D224" t="n">
+        <v>129.131038541024</v>
+      </c>
+      <c r="E224" t="n">
+        <v>0</v>
+      </c>
+      <c r="F224" t="n">
+        <v>21.52183975683733</v>
       </c>
     </row>
     <row r="225">
@@ -2162,7 +4858,19 @@
         <v>5.41408</v>
       </c>
       <c r="B225" t="n">
-        <v>0.0003247936478074314</v>
+        <v>0.0003569952713279053</v>
+      </c>
+      <c r="C225" t="n">
+        <v>7.114107949960764e-06</v>
+      </c>
+      <c r="D225" t="n">
+        <v>134.2639903302555</v>
+      </c>
+      <c r="E225" t="n">
+        <v>0</v>
+      </c>
+      <c r="F225" t="n">
+        <v>22.37733172170924</v>
       </c>
     </row>
     <row r="226">
@@ -2170,7 +4878,19 @@
         <v>5.42436</v>
       </c>
       <c r="B226" t="n">
-        <v>0.0003056643795377315</v>
+        <v>0.0003406624183023246</v>
+      </c>
+      <c r="C226" t="n">
+        <v>6.860297508245989e-06</v>
+      </c>
+      <c r="D226" t="n">
+        <v>163.0980942021039</v>
+      </c>
+      <c r="E226" t="n">
+        <v>0</v>
+      </c>
+      <c r="F226" t="n">
+        <v>27.18301570035065</v>
       </c>
     </row>
     <row r="227">
@@ -2178,7 +4898,19 @@
         <v>5.43541</v>
       </c>
       <c r="B227" t="n">
-        <v>0.0003051089845074115</v>
+        <v>0.0003486404441397874</v>
+      </c>
+      <c r="C227" t="n">
+        <v>6.990755656767723e-06</v>
+      </c>
+      <c r="D227" t="n">
+        <v>195.7713167699674</v>
+      </c>
+      <c r="E227" t="n">
+        <v>0</v>
+      </c>
+      <c r="F227" t="n">
+        <v>32.62855279499457</v>
       </c>
     </row>
     <row r="228">
@@ -2186,7 +4918,19 @@
         <v>5.43926</v>
       </c>
       <c r="B228" t="n">
-        <v>0.0003127700602788281</v>
+        <v>0.0003628699192182218</v>
+      </c>
+      <c r="C228" t="n">
+        <v>7.340121963746192e-06</v>
+      </c>
+      <c r="D228" t="n">
+        <v>215.4449618803311</v>
+      </c>
+      <c r="E228" t="n">
+        <v>0</v>
+      </c>
+      <c r="F228" t="n">
+        <v>35.90749364672185</v>
       </c>
     </row>
     <row r="229">
@@ -2194,7 +4938,19 @@
         <v>5.44082</v>
       </c>
       <c r="B229" t="n">
-        <v>0.0003118817402001736</v>
+        <v>0.0003606791179656504</v>
+      </c>
+      <c r="C229" t="n">
+        <v>7.394610772836952e-06</v>
+      </c>
+      <c r="D229" t="n">
+        <v>203.4344130668822</v>
+      </c>
+      <c r="E229" t="n">
+        <v>0</v>
+      </c>
+      <c r="F229" t="n">
+        <v>33.90573551114704</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/CSV/analytically/a1/a0/a0Fit.xlsx
+++ b/legendre_out/CSV/analytically/a1/a0/a0Fit.xlsx
@@ -407,7 +407,7 @@
         <v>246.0940335545313</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>2.802402260384726e-50</v>
       </c>
       <c r="F2" t="n">
         <v>41.01567225908855</v>
@@ -427,7 +427,7 @@
         <v>232.6327686207024</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>2.099689305937375e-47</v>
       </c>
       <c r="F3" t="n">
         <v>38.77212810345039</v>
@@ -447,7 +447,7 @@
         <v>162.8020996055724</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1.509637586071597e-32</v>
       </c>
       <c r="F4" t="n">
         <v>27.1336832675954</v>
@@ -467,7 +467,7 @@
         <v>206.2467146728396</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>8.875673946949148e-42</v>
       </c>
       <c r="F5" t="n">
         <v>34.37445244547327</v>
@@ -487,7 +487,7 @@
         <v>195.9487133195296</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1.381456600887653e-39</v>
       </c>
       <c r="F6" t="n">
         <v>32.65811888658826</v>
@@ -507,7 +507,7 @@
         <v>162.6084770015788</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>1.65919097821377e-32</v>
       </c>
       <c r="F7" t="n">
         <v>27.10141283359647</v>
@@ -527,7 +527,7 @@
         <v>171.9675813693353</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1.720355627423958e-34</v>
       </c>
       <c r="F8" t="n">
         <v>28.66126356155588</v>
@@ -547,7 +547,7 @@
         <v>159.8059783173473</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>6.509358761436096e-32</v>
       </c>
       <c r="F9" t="n">
         <v>26.63432971955788</v>
@@ -567,7 +567,7 @@
         <v>175.2069236000058</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>3.533675344970053e-35</v>
       </c>
       <c r="F10" t="n">
         <v>29.2011539333343</v>
@@ -587,7 +587,7 @@
         <v>103.1470406940925</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>5.527973096441017e-20</v>
       </c>
       <c r="F11" t="n">
         <v>17.19117344901542</v>
@@ -607,7 +607,7 @@
         <v>75.31951974454304</v>
       </c>
       <c r="E12" t="n">
-        <v>3.297362383136715e-14</v>
+        <v>3.298776479539778e-14</v>
       </c>
       <c r="F12" t="n">
         <v>12.55325329075717</v>
@@ -627,7 +627,7 @@
         <v>80.14427539418131</v>
       </c>
       <c r="E13" t="n">
-        <v>3.33066907387547e-15</v>
+        <v>3.335905281285754e-15</v>
       </c>
       <c r="F13" t="n">
         <v>13.35737923236355</v>
@@ -647,7 +647,7 @@
         <v>85.54207397182176</v>
       </c>
       <c r="E14" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>2.548853926180147e-16</v>
       </c>
       <c r="F14" t="n">
         <v>14.25701232863696</v>
@@ -667,7 +667,7 @@
         <v>150.1480553416547</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>7.199161392234085e-30</v>
       </c>
       <c r="F15" t="n">
         <v>25.02467589027579</v>
@@ -687,7 +687,7 @@
         <v>175.8548979440586</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>2.574486923824805e-35</v>
       </c>
       <c r="F16" t="n">
         <v>29.3091496573431</v>
@@ -707,7 +707,7 @@
         <v>171.4358563021536</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>2.230603311997029e-34</v>
       </c>
       <c r="F17" t="n">
         <v>28.5726427170256</v>
@@ -727,7 +727,7 @@
         <v>157.6472975060266</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>1.864771452046681e-31</v>
       </c>
       <c r="F18" t="n">
         <v>26.27454958433776</v>
@@ -747,7 +747,7 @@
         <v>196.9590303316182</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>8.421145868729756e-40</v>
       </c>
       <c r="F19" t="n">
         <v>32.8265050552697</v>
@@ -767,7 +767,7 @@
         <v>172.5609547022166</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1.287437119327729e-34</v>
       </c>
       <c r="F20" t="n">
         <v>28.7601591170361</v>
@@ -787,7 +787,7 @@
         <v>181.5533607659313</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>1.587357967339007e-36</v>
       </c>
       <c r="F21" t="n">
         <v>30.25889346098855</v>
@@ -807,7 +807,7 @@
         <v>182.268795299653</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>1.118661659174255e-36</v>
       </c>
       <c r="F22" t="n">
         <v>30.37813254994218</v>
@@ -827,7 +827,7 @@
         <v>271.793874563765</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>8.963769338391863e-56</v>
       </c>
       <c r="F23" t="n">
         <v>45.29897909396084</v>
@@ -847,7 +847,7 @@
         <v>255.8345376583388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>2.321957865383631e-52</v>
       </c>
       <c r="F24" t="n">
         <v>42.63908960972314</v>
@@ -867,7 +867,7 @@
         <v>351.8745030213106</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>6.110052439723022e-73</v>
       </c>
       <c r="F25" t="n">
         <v>58.64575050355177</v>
@@ -887,7 +887,7 @@
         <v>368.9111964856281</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>1.340954535672088e-76</v>
       </c>
       <c r="F26" t="n">
         <v>61.48519941427134</v>
@@ -907,7 +907,7 @@
         <v>354.1495713714795</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>1.984203689461127e-73</v>
       </c>
       <c r="F27" t="n">
         <v>59.02492856191324</v>
@@ -927,7 +927,7 @@
         <v>301.5084954054804</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>3.886267347644057e-62</v>
       </c>
       <c r="F28" t="n">
         <v>50.2514159009134</v>
@@ -947,7 +947,7 @@
         <v>283.2739083443175</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>3.128295949683155e-58</v>
       </c>
       <c r="F29" t="n">
         <v>47.21231805738625</v>
@@ -967,7 +967,7 @@
         <v>330.3647117159312</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>2.52563097831419e-68</v>
       </c>
       <c r="F30" t="n">
         <v>55.06078528598852</v>
@@ -987,7 +987,7 @@
         <v>310.2989901682101</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>5.075740366146634e-64</v>
       </c>
       <c r="F31" t="n">
         <v>51.71649836136834</v>
@@ -1007,7 +1007,7 @@
         <v>367.1043899776935</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>3.277296695469693e-76</v>
       </c>
       <c r="F32" t="n">
         <v>61.18406499628225</v>
@@ -1027,7 +1027,7 @@
         <v>317.211433273987</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>1.673001783122922e-65</v>
       </c>
       <c r="F33" t="n">
         <v>52.86857221233117</v>
@@ -1047,7 +1047,7 @@
         <v>382.7100425638907</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>1.4546515361942e-79</v>
       </c>
       <c r="F34" t="n">
         <v>63.78500709398178</v>
@@ -1067,7 +1067,7 @@
         <v>294.74179903319</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>1.0947595394272e-60</v>
       </c>
       <c r="F35" t="n">
         <v>49.12363317219833</v>
@@ -1087,7 +1087,7 @@
         <v>304.9127898417519</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>7.244149156556036e-63</v>
       </c>
       <c r="F36" t="n">
         <v>50.81879830695865</v>
@@ -1107,7 +1107,7 @@
         <v>316.0797883583089</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>2.925131318072146e-65</v>
       </c>
       <c r="F37" t="n">
         <v>52.67996472638482</v>
@@ -1127,7 +1127,7 @@
         <v>322.0624318811657</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>1.524808945128955e-66</v>
       </c>
       <c r="F38" t="n">
         <v>53.67707198019428</v>
@@ -1147,7 +1147,7 @@
         <v>266.7774666682432</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>1.061033110329797e-54</v>
       </c>
       <c r="F39" t="n">
         <v>44.46291111137386</v>
@@ -1167,7 +1167,7 @@
         <v>246.3367723075431</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>2.486965687447757e-50</v>
       </c>
       <c r="F40" t="n">
         <v>41.05612871792385</v>
@@ -1187,7 +1187,7 @@
         <v>317.5963408181128</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>1.38344364184699e-65</v>
       </c>
       <c r="F41" t="n">
         <v>52.93272346968547</v>
@@ -1207,7 +1207,7 @@
         <v>142.1880615552966</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>3.460245448605812e-28</v>
       </c>
       <c r="F42" t="n">
         <v>23.6980102592161</v>
@@ -1227,7 +1227,7 @@
         <v>119.9090466181026</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>1.702864601045144e-23</v>
       </c>
       <c r="F43" t="n">
         <v>19.98484110301709</v>
@@ -1247,7 +1247,7 @@
         <v>136.7314423869012</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>4.903369271662925e-27</v>
       </c>
       <c r="F44" t="n">
         <v>22.78857373115019</v>
@@ -1267,7 +1267,7 @@
         <v>108.8181207193009</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>3.603448575933853e-21</v>
       </c>
       <c r="F45" t="n">
         <v>18.13635345321681</v>
@@ -1287,7 +1287,7 @@
         <v>77.69158229617375</v>
       </c>
       <c r="E46" t="n">
-        <v>1.06581410364015e-14</v>
+        <v>1.070275601312774e-14</v>
       </c>
       <c r="F46" t="n">
         <v>12.94859704936229</v>
@@ -1307,7 +1307,7 @@
         <v>77.65435250200105</v>
       </c>
       <c r="E47" t="n">
-        <v>1.088018564132653e-14</v>
+        <v>1.089367341363703e-14</v>
       </c>
       <c r="F47" t="n">
         <v>12.94239208366684</v>
@@ -1327,7 +1327,7 @@
         <v>52.22377040042046</v>
       </c>
       <c r="E48" t="n">
-        <v>1.681249695018039e-09</v>
+        <v>1.681249682162279e-09</v>
       </c>
       <c r="F48" t="n">
         <v>8.703961733403411</v>
@@ -1347,7 +1347,7 @@
         <v>54.58538638425357</v>
       </c>
       <c r="E49" t="n">
-        <v>5.620756082791445e-10</v>
+        <v>5.620756109740737e-10</v>
       </c>
       <c r="F49" t="n">
         <v>9.097564397375594</v>
@@ -1367,7 +1367,7 @@
         <v>53.52563833580803</v>
       </c>
       <c r="E50" t="n">
-        <v>9.194233152598486e-10</v>
+        <v>9.194233633453038e-10</v>
       </c>
       <c r="F50" t="n">
         <v>8.920939722634671</v>
@@ -1387,7 +1387,7 @@
         <v>35.95414137642858</v>
       </c>
       <c r="E51" t="n">
-        <v>2.813779257371252e-06</v>
+        <v>2.81377925741005e-06</v>
       </c>
       <c r="F51" t="n">
         <v>5.99235689607143</v>
@@ -1407,7 +1407,7 @@
         <v>50.39875000182357</v>
       </c>
       <c r="E52" t="n">
-        <v>3.910520796068795e-09</v>
+        <v>3.910520821128195e-09</v>
       </c>
       <c r="F52" t="n">
         <v>8.399791666970595</v>
@@ -1427,7 +1427,7 @@
         <v>38.81757588250735</v>
       </c>
       <c r="E53" t="n">
-        <v>7.771705853309996e-07</v>
+        <v>7.771705852909739e-07</v>
       </c>
       <c r="F53" t="n">
         <v>6.469595980417892</v>
@@ -1447,7 +1447,7 @@
         <v>66.22017054263766</v>
       </c>
       <c r="E54" t="n">
-        <v>2.429834111694618e-12</v>
+        <v>2.429860783105225e-12</v>
       </c>
       <c r="F54" t="n">
         <v>11.03669509043961</v>
@@ -1507,7 +1507,7 @@
         <v>11.06242424535598</v>
       </c>
       <c r="E57" t="n">
-        <v>0.08646618980000464</v>
+        <v>0.08646618980000463</v>
       </c>
       <c r="F57" t="n">
         <v>1.843737374225997</v>
@@ -1547,7 +1547,7 @@
         <v>40.20439773448993</v>
       </c>
       <c r="E59" t="n">
-        <v>4.15265231423767e-07</v>
+        <v>4.152652314093212e-07</v>
       </c>
       <c r="F59" t="n">
         <v>6.700732955748322</v>
@@ -1567,7 +1567,7 @@
         <v>59.34555973538335</v>
       </c>
       <c r="E60" t="n">
-        <v>6.112421679915769e-11</v>
+        <v>6.112418598405611e-11</v>
       </c>
       <c r="F60" t="n">
         <v>9.890926622563892</v>
@@ -1587,7 +1587,7 @@
         <v>68.60870959465132</v>
       </c>
       <c r="E61" t="n">
-        <v>7.884803920887862e-13</v>
+        <v>7.884658150189669e-13</v>
       </c>
       <c r="F61" t="n">
         <v>11.43478493244189</v>
@@ -1607,7 +1607,7 @@
         <v>86.96089315300529</v>
       </c>
       <c r="E62" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>1.294820937822732e-16</v>
       </c>
       <c r="F62" t="n">
         <v>14.49348219216755</v>
@@ -1627,7 +1627,7 @@
         <v>139.6900740877831</v>
       </c>
       <c r="E63" t="n">
-        <v>0</v>
+        <v>1.165094661774394e-27</v>
       </c>
       <c r="F63" t="n">
         <v>23.28167901463052</v>
@@ -1647,7 +1647,7 @@
         <v>171.9745129456241</v>
       </c>
       <c r="E64" t="n">
-        <v>0</v>
+        <v>1.714540161841537e-34</v>
       </c>
       <c r="F64" t="n">
         <v>28.66241882427068</v>
@@ -1667,7 +1667,7 @@
         <v>200.6471519119274</v>
       </c>
       <c r="E65" t="n">
-        <v>0</v>
+        <v>1.381840379965243e-40</v>
       </c>
       <c r="F65" t="n">
         <v>33.44119198532123</v>
@@ -1687,7 +1687,7 @@
         <v>199.40502098227</v>
       </c>
       <c r="E66" t="n">
-        <v>0</v>
+        <v>2.540055960490906e-40</v>
       </c>
       <c r="F66" t="n">
         <v>33.23417016371167</v>
@@ -1707,7 +1707,7 @@
         <v>133.9105070745329</v>
       </c>
       <c r="E67" t="n">
-        <v>0</v>
+        <v>1.92847036014974e-26</v>
       </c>
       <c r="F67" t="n">
         <v>22.31841784575548</v>
@@ -1727,7 +1727,7 @@
         <v>84.08997782731235</v>
       </c>
       <c r="E68" t="n">
-        <v>5.551115123125783e-16</v>
+        <v>5.094984355831109e-16</v>
       </c>
       <c r="F68" t="n">
         <v>14.01499630455206</v>
@@ -1747,7 +1747,7 @@
         <v>49.12681100018041</v>
       </c>
       <c r="E69" t="n">
-        <v>7.032666560213841e-09</v>
+        <v>7.032666589804667e-09</v>
       </c>
       <c r="F69" t="n">
         <v>8.187801833363402</v>
@@ -1767,7 +1767,7 @@
         <v>66.08032194257069</v>
       </c>
       <c r="E70" t="n">
-        <v>2.595146320061303e-12</v>
+        <v>2.595184646932886e-12</v>
       </c>
       <c r="F70" t="n">
         <v>11.01338699042845</v>
@@ -1787,7 +1787,7 @@
         <v>42.41364143590341</v>
       </c>
       <c r="E71" t="n">
-        <v>1.523411871096059e-07</v>
+        <v>1.523411871260062e-07</v>
       </c>
       <c r="F71" t="n">
         <v>7.068940239317235</v>
@@ -1827,7 +1827,7 @@
         <v>33.98981220412048</v>
       </c>
       <c r="E73" t="n">
-        <v>6.757940143709007e-06</v>
+        <v>6.757940143729414e-06</v>
       </c>
       <c r="F73" t="n">
         <v>5.664968700686747</v>
@@ -1887,7 +1887,7 @@
         <v>19.3873304340787</v>
       </c>
       <c r="E76" t="n">
-        <v>0.003557125115998816</v>
+        <v>0.003557125115998793</v>
       </c>
       <c r="F76" t="n">
         <v>3.231221739013117</v>
@@ -1907,7 +1907,7 @@
         <v>62.22880232921995</v>
       </c>
       <c r="E77" t="n">
-        <v>1.584810060961672e-11</v>
+        <v>1.584812261237553e-11</v>
       </c>
       <c r="F77" t="n">
         <v>10.37146705486999</v>
@@ -1927,7 +1927,7 @@
         <v>289.3750504193694</v>
       </c>
       <c r="E78" t="n">
-        <v>0</v>
+        <v>1.544690226406395e-59</v>
       </c>
       <c r="F78" t="n">
         <v>48.2291750698949</v>
@@ -1947,7 +1947,7 @@
         <v>781.790066255864</v>
       </c>
       <c r="E79" t="n">
-        <v>0</v>
+        <v>1.323599089669341e-165</v>
       </c>
       <c r="F79" t="n">
         <v>130.2983443759773</v>
@@ -1967,7 +1967,7 @@
         <v>623.044284109438</v>
       </c>
       <c r="E80" t="n">
-        <v>0</v>
+        <v>2.491086169267192e-131</v>
       </c>
       <c r="F80" t="n">
         <v>103.8407140182397</v>
@@ -1987,7 +1987,7 @@
         <v>672.7204909786176</v>
       </c>
       <c r="E81" t="n">
-        <v>0</v>
+        <v>4.739833440256107e-142</v>
       </c>
       <c r="F81" t="n">
         <v>112.1200818297696</v>
@@ -2007,7 +2007,7 @@
         <v>385.2835003509908</v>
       </c>
       <c r="E82" t="n">
-        <v>0</v>
+        <v>4.071275571055032e-80</v>
       </c>
       <c r="F82" t="n">
         <v>64.21391672516513</v>
@@ -2027,7 +2027,7 @@
         <v>213.8735964650948</v>
       </c>
       <c r="E83" t="n">
-        <v>0</v>
+        <v>2.10515926545175e-43</v>
       </c>
       <c r="F83" t="n">
         <v>35.64559941084914</v>
@@ -2047,7 +2047,7 @@
         <v>398.6634268038873</v>
       </c>
       <c r="E84" t="n">
-        <v>0</v>
+        <v>5.417726011165262e-83</v>
       </c>
       <c r="F84" t="n">
         <v>66.44390446731455</v>
@@ -2067,7 +2067,7 @@
         <v>444.5003713609482</v>
       </c>
       <c r="E85" t="n">
-        <v>0</v>
+        <v>7.490885045001779e-93</v>
       </c>
       <c r="F85" t="n">
         <v>74.08339522682469</v>
@@ -2087,7 +2087,7 @@
         <v>262.465736259659</v>
       </c>
       <c r="E86" t="n">
-        <v>0</v>
+        <v>8.870808493566091e-54</v>
       </c>
       <c r="F86" t="n">
         <v>43.74428937660983</v>
@@ -2107,7 +2107,7 @@
         <v>267.4399945087559</v>
       </c>
       <c r="E87" t="n">
-        <v>0</v>
+        <v>7.655986083687047e-55</v>
       </c>
       <c r="F87" t="n">
         <v>44.57333241812599</v>
@@ -2127,7 +2127,7 @@
         <v>211.5417890160704</v>
       </c>
       <c r="E88" t="n">
-        <v>0</v>
+        <v>6.609947805372637e-43</v>
       </c>
       <c r="F88" t="n">
         <v>35.25696483601174</v>
@@ -2147,7 +2147,7 @@
         <v>224.9378771342063</v>
       </c>
       <c r="E89" t="n">
-        <v>0</v>
+        <v>9.207003612343391e-46</v>
       </c>
       <c r="F89" t="n">
         <v>37.48964618903439</v>
@@ -2167,7 +2167,7 @@
         <v>341.3934012360855</v>
       </c>
       <c r="E90" t="n">
-        <v>0</v>
+        <v>1.086109163662201e-70</v>
       </c>
       <c r="F90" t="n">
         <v>56.89890020601425</v>
@@ -2187,7 +2187,7 @@
         <v>478.3539202119101</v>
       </c>
       <c r="E91" t="n">
-        <v>0</v>
+        <v>3.861946454166589e-100</v>
       </c>
       <c r="F91" t="n">
         <v>79.72565336865168</v>
@@ -2207,7 +2207,7 @@
         <v>434.7868460502731</v>
       </c>
       <c r="E92" t="n">
-        <v>0</v>
+        <v>9.219220420708278e-91</v>
       </c>
       <c r="F92" t="n">
         <v>72.46447434171219</v>
@@ -2227,7 +2227,7 @@
         <v>381.2659663321848</v>
       </c>
       <c r="E93" t="n">
-        <v>0</v>
+        <v>2.972142947001119e-79</v>
       </c>
       <c r="F93" t="n">
         <v>63.5443277220308</v>
@@ -2247,7 +2247,7 @@
         <v>237.8073161689513</v>
       </c>
       <c r="E94" t="n">
-        <v>0</v>
+        <v>1.649918502725783e-48</v>
       </c>
       <c r="F94" t="n">
         <v>39.63455269482521</v>
@@ -2267,7 +2267,7 @@
         <v>123.6711782661599</v>
       </c>
       <c r="E95" t="n">
-        <v>0</v>
+        <v>2.758266483694962e-24</v>
       </c>
       <c r="F95" t="n">
         <v>20.61186304435999</v>
@@ -2287,7 +2287,7 @@
         <v>115.483871117685</v>
       </c>
       <c r="E96" t="n">
-        <v>0</v>
+        <v>1.445401042227491e-22</v>
       </c>
       <c r="F96" t="n">
         <v>19.2473118529475</v>
@@ -2307,7 +2307,7 @@
         <v>168.6876003452896</v>
       </c>
       <c r="E97" t="n">
-        <v>0</v>
+        <v>8.537418747426761e-34</v>
       </c>
       <c r="F97" t="n">
         <v>28.11460005754827</v>
@@ -2327,7 +2327,7 @@
         <v>183.7738335220507</v>
       </c>
       <c r="E98" t="n">
-        <v>0</v>
+        <v>5.357331536431128e-37</v>
       </c>
       <c r="F98" t="n">
         <v>30.62897225367511</v>
@@ -2347,7 +2347,7 @@
         <v>200.9693056769524</v>
       </c>
       <c r="E99" t="n">
-        <v>0</v>
+        <v>1.180001793654361e-40</v>
       </c>
       <c r="F99" t="n">
         <v>33.49488427949206</v>
@@ -2367,7 +2367,7 @@
         <v>151.7341680110526</v>
       </c>
       <c r="E100" t="n">
-        <v>0</v>
+        <v>3.325587442018522e-30</v>
       </c>
       <c r="F100" t="n">
         <v>25.2890280018421</v>
@@ -2387,7 +2387,7 @@
         <v>124.0532463614212</v>
       </c>
       <c r="E101" t="n">
-        <v>0</v>
+        <v>2.292488785507737e-24</v>
       </c>
       <c r="F101" t="n">
         <v>20.67554106023686</v>
@@ -2407,7 +2407,7 @@
         <v>79.85384779790181</v>
       </c>
       <c r="E102" t="n">
-        <v>3.774758283725532e-15</v>
+        <v>3.830052124152782e-15</v>
       </c>
       <c r="F102" t="n">
         <v>13.30897463298363</v>
@@ -2427,7 +2427,7 @@
         <v>83.01152347196492</v>
       </c>
       <c r="E103" t="n">
-        <v>8.881784197001252e-16</v>
+        <v>8.518882543584031e-16</v>
       </c>
       <c r="F103" t="n">
         <v>13.83525391199415</v>
@@ -2447,7 +2447,7 @@
         <v>81.0110188413875</v>
       </c>
       <c r="E104" t="n">
-        <v>2.220446049250313e-15</v>
+        <v>2.208585925459352e-15</v>
       </c>
       <c r="F104" t="n">
         <v>13.50183647356458</v>
@@ -2467,7 +2467,7 @@
         <v>125.3822151688829</v>
       </c>
       <c r="E105" t="n">
-        <v>0</v>
+        <v>1.204571449214417e-24</v>
       </c>
       <c r="F105" t="n">
         <v>20.89703586148049</v>
@@ -2487,7 +2487,7 @@
         <v>104.3157519581925</v>
       </c>
       <c r="E106" t="n">
-        <v>0</v>
+        <v>3.150512318307876e-20</v>
       </c>
       <c r="F106" t="n">
         <v>17.38595865969876</v>
@@ -2507,7 +2507,7 @@
         <v>149.5964971843067</v>
       </c>
       <c r="E107" t="n">
-        <v>0</v>
+        <v>9.416669110954197e-30</v>
       </c>
       <c r="F107" t="n">
         <v>24.93274953071779</v>
@@ -2527,7 +2527,7 @@
         <v>87.58659157497662</v>
       </c>
       <c r="E108" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>9.60341577674772e-17</v>
       </c>
       <c r="F108" t="n">
         <v>14.5977652624961</v>
@@ -2547,7 +2547,7 @@
         <v>106.1705374840082</v>
       </c>
       <c r="E109" t="n">
-        <v>0</v>
+        <v>1.290140900838471e-20</v>
       </c>
       <c r="F109" t="n">
         <v>17.69508958066803</v>
@@ -2567,7 +2567,7 @@
         <v>156.8797460360951</v>
       </c>
       <c r="E110" t="n">
-        <v>0</v>
+        <v>2.710889948845393e-31</v>
       </c>
       <c r="F110" t="n">
         <v>26.14662433934918</v>
@@ -2587,7 +2587,7 @@
         <v>128.3110375276682</v>
       </c>
       <c r="E111" t="n">
-        <v>0</v>
+        <v>2.914653450099182e-25</v>
       </c>
       <c r="F111" t="n">
         <v>21.38517292127804</v>
@@ -2607,7 +2607,7 @@
         <v>136.3157217527925</v>
       </c>
       <c r="E112" t="n">
-        <v>0</v>
+        <v>6.000135034254228e-27</v>
       </c>
       <c r="F112" t="n">
         <v>22.71928695879874</v>
@@ -2627,7 +2627,7 @@
         <v>161.9873286375901</v>
       </c>
       <c r="E113" t="n">
-        <v>0</v>
+        <v>2.246434222538578e-32</v>
       </c>
       <c r="F113" t="n">
         <v>26.99788810626501</v>
@@ -2647,7 +2647,7 @@
         <v>153.6102379974909</v>
       </c>
       <c r="E114" t="n">
-        <v>0</v>
+        <v>1.333578910910425e-30</v>
       </c>
       <c r="F114" t="n">
         <v>25.60170633291514</v>
@@ -2667,7 +2667,7 @@
         <v>149.1009514218778</v>
       </c>
       <c r="E115" t="n">
-        <v>0</v>
+        <v>1.198561343593459e-29</v>
       </c>
       <c r="F115" t="n">
         <v>24.85015857031296</v>
@@ -2687,7 +2687,7 @@
         <v>145.587234821695</v>
       </c>
       <c r="E116" t="n">
-        <v>0</v>
+        <v>6.625535589694662e-29</v>
       </c>
       <c r="F116" t="n">
         <v>24.26453913694917</v>
@@ -2707,7 +2707,7 @@
         <v>176.0551666423017</v>
       </c>
       <c r="E117" t="n">
-        <v>0</v>
+        <v>2.334426864776187e-35</v>
       </c>
       <c r="F117" t="n">
         <v>29.34252777371695</v>
@@ -2727,7 +2727,7 @@
         <v>141.3940550231708</v>
       </c>
       <c r="E118" t="n">
-        <v>0</v>
+        <v>5.090117967591998e-28</v>
       </c>
       <c r="F118" t="n">
         <v>23.56567583719514</v>
@@ -2747,7 +2747,7 @@
         <v>165.2207131299236</v>
       </c>
       <c r="E119" t="n">
-        <v>0</v>
+        <v>4.637994949807347e-33</v>
       </c>
       <c r="F119" t="n">
         <v>27.53678552165393</v>
@@ -2767,7 +2767,7 @@
         <v>165.8835144298599</v>
       </c>
       <c r="E120" t="n">
-        <v>0</v>
+        <v>3.356141553901526e-33</v>
       </c>
       <c r="F120" t="n">
         <v>27.64725240497664</v>
@@ -2787,7 +2787,7 @@
         <v>178.7684907847602</v>
       </c>
       <c r="E121" t="n">
-        <v>0</v>
+        <v>6.196180958592989e-36</v>
       </c>
       <c r="F121" t="n">
         <v>29.7947484641267</v>
@@ -2807,7 +2807,7 @@
         <v>177.6608526884748</v>
       </c>
       <c r="E122" t="n">
-        <v>0</v>
+        <v>1.064894920773489e-35</v>
       </c>
       <c r="F122" t="n">
         <v>29.6101421147458</v>
@@ -2827,7 +2827,7 @@
         <v>206.0786226856103</v>
       </c>
       <c r="E123" t="n">
-        <v>0</v>
+        <v>9.638306382106746e-42</v>
       </c>
       <c r="F123" t="n">
         <v>34.34643711426838</v>
@@ -2847,7 +2847,7 @@
         <v>249.5469250355042</v>
       </c>
       <c r="E124" t="n">
-        <v>0</v>
+        <v>5.125653361755734e-51</v>
       </c>
       <c r="F124" t="n">
         <v>41.59115417258403</v>
@@ -2867,7 +2867,7 @@
         <v>150.7643543677013</v>
       </c>
       <c r="E125" t="n">
-        <v>0</v>
+        <v>5.332918155991633e-30</v>
       </c>
       <c r="F125" t="n">
         <v>25.12739239461688</v>
@@ -2887,7 +2887,7 @@
         <v>230.6728978661673</v>
       </c>
       <c r="E126" t="n">
-        <v>0</v>
+        <v>5.501110445708081e-47</v>
       </c>
       <c r="F126" t="n">
         <v>38.44548297769455</v>
@@ -2907,7 +2907,7 @@
         <v>185.6509846635361</v>
       </c>
       <c r="E127" t="n">
-        <v>0</v>
+        <v>2.138267029042806e-37</v>
       </c>
       <c r="F127" t="n">
         <v>30.94183077725602</v>
@@ -2927,7 +2927,7 @@
         <v>177.3520332079979</v>
       </c>
       <c r="E128" t="n">
-        <v>0</v>
+        <v>1.238431342923222e-35</v>
       </c>
       <c r="F128" t="n">
         <v>29.55867220133298</v>
@@ -2947,7 +2947,7 @@
         <v>157.577532174185</v>
       </c>
       <c r="E129" t="n">
-        <v>0</v>
+        <v>1.929280467484846e-31</v>
       </c>
       <c r="F129" t="n">
         <v>26.26292202903083</v>
@@ -2967,7 +2967,7 @@
         <v>109.8423747940935</v>
       </c>
       <c r="E130" t="n">
-        <v>0</v>
+        <v>2.199343186640176e-21</v>
       </c>
       <c r="F130" t="n">
         <v>18.30706246568225</v>
@@ -2987,7 +2987,7 @@
         <v>113.9238763287826</v>
       </c>
       <c r="E131" t="n">
-        <v>0</v>
+        <v>3.069938182770711e-22</v>
       </c>
       <c r="F131" t="n">
         <v>18.98731272146377</v>
@@ -3007,7 +3007,7 @@
         <v>105.6650464743572</v>
       </c>
       <c r="E132" t="n">
-        <v>0</v>
+        <v>1.645644443670607e-20</v>
       </c>
       <c r="F132" t="n">
         <v>17.61084107905953</v>
@@ -3027,7 +3027,7 @@
         <v>120.5440105980009</v>
       </c>
       <c r="E133" t="n">
-        <v>0</v>
+        <v>1.252594622699854e-23</v>
       </c>
       <c r="F133" t="n">
         <v>20.09066843300015</v>
@@ -3047,7 +3047,7 @@
         <v>99.86127526086565</v>
       </c>
       <c r="E134" t="n">
-        <v>0</v>
+        <v>2.682225118555379e-19</v>
       </c>
       <c r="F134" t="n">
         <v>16.64354587681094</v>
@@ -3067,7 +3067,7 @@
         <v>108.476747904549</v>
       </c>
       <c r="E135" t="n">
-        <v>0</v>
+        <v>4.247834322925157e-21</v>
       </c>
       <c r="F135" t="n">
         <v>18.0794579840915</v>
@@ -3087,7 +3087,7 @@
         <v>87.44568683080783</v>
       </c>
       <c r="E136" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>1.027202977637883e-16</v>
       </c>
       <c r="F136" t="n">
         <v>14.57428113846797</v>
@@ -3107,7 +3107,7 @@
         <v>92.34850297867104</v>
       </c>
       <c r="E137" t="n">
-        <v>0</v>
+        <v>9.848101616917586e-18</v>
       </c>
       <c r="F137" t="n">
         <v>15.39141716311184</v>
@@ -3127,7 +3127,7 @@
         <v>122.41393132704</v>
       </c>
       <c r="E138" t="n">
-        <v>0</v>
+        <v>5.068889373818944e-24</v>
       </c>
       <c r="F138" t="n">
         <v>20.40232188783999</v>
@@ -3147,7 +3147,7 @@
         <v>135.0137014146651</v>
       </c>
       <c r="E139" t="n">
-        <v>0</v>
+        <v>1.128957999754746e-26</v>
       </c>
       <c r="F139" t="n">
         <v>22.50228356911084</v>
@@ -3167,7 +3167,7 @@
         <v>194.1514069977454</v>
       </c>
       <c r="E140" t="n">
-        <v>0</v>
+        <v>3.331928397782407e-39</v>
       </c>
       <c r="F140" t="n">
         <v>32.35856783295757</v>
@@ -3187,7 +3187,7 @@
         <v>187.8566289626719</v>
       </c>
       <c r="E141" t="n">
-        <v>0</v>
+        <v>7.265425626216534e-38</v>
       </c>
       <c r="F141" t="n">
         <v>31.30943816044531</v>
@@ -3207,7 +3207,7 @@
         <v>224.0460123131093</v>
       </c>
       <c r="E142" t="n">
-        <v>0</v>
+        <v>1.426803905772467e-45</v>
       </c>
       <c r="F142" t="n">
         <v>37.34100205218488</v>
@@ -3227,7 +3227,7 @@
         <v>311.6546582283362</v>
       </c>
       <c r="E143" t="n">
-        <v>0</v>
+        <v>2.599453124427827e-64</v>
       </c>
       <c r="F143" t="n">
         <v>51.94244303805603</v>
@@ -3247,7 +3247,7 @@
         <v>317.5477892875816</v>
       </c>
       <c r="E144" t="n">
-        <v>0</v>
+        <v>1.417008142868722e-65</v>
       </c>
       <c r="F144" t="n">
         <v>52.92463154793026</v>
@@ -3267,7 +3267,7 @@
         <v>381.394017023974</v>
       </c>
       <c r="E145" t="n">
-        <v>0</v>
+        <v>2.789677383319497e-79</v>
       </c>
       <c r="F145" t="n">
         <v>63.56566950399566</v>
@@ -3287,7 +3287,7 @@
         <v>427.309989834263</v>
       </c>
       <c r="E146" t="n">
-        <v>0</v>
+        <v>3.743485054758201e-89</v>
       </c>
       <c r="F146" t="n">
         <v>71.21833163904383</v>
@@ -3307,7 +3307,7 @@
         <v>399.5561255990792</v>
       </c>
       <c r="E147" t="n">
-        <v>0</v>
+        <v>3.482595365133868e-83</v>
       </c>
       <c r="F147" t="n">
         <v>66.59268759984653</v>
@@ -3327,7 +3327,7 @@
         <v>397.9369869586595</v>
       </c>
       <c r="E148" t="n">
-        <v>0</v>
+        <v>7.762207064244306e-83</v>
       </c>
       <c r="F148" t="n">
         <v>66.32283115977658</v>
@@ -3347,7 +3347,7 @@
         <v>388.6448238344649</v>
       </c>
       <c r="E149" t="n">
-        <v>0</v>
+        <v>7.714971729396166e-81</v>
       </c>
       <c r="F149" t="n">
         <v>64.77413730574415</v>
@@ -3367,7 +3367,7 @@
         <v>365.3754029073007</v>
       </c>
       <c r="E150" t="n">
-        <v>0</v>
+        <v>7.706947170856125e-76</v>
       </c>
       <c r="F150" t="n">
         <v>60.89590048455011</v>
@@ -3387,7 +3387,7 @@
         <v>306.6775710834151</v>
       </c>
       <c r="E151" t="n">
-        <v>0</v>
+        <v>3.032145033029523e-63</v>
       </c>
       <c r="F151" t="n">
         <v>51.11292851390252</v>
@@ -3407,7 +3407,7 @@
         <v>259.0342554262616</v>
       </c>
       <c r="E152" t="n">
-        <v>0</v>
+        <v>4.805699776535454e-53</v>
       </c>
       <c r="F152" t="n">
         <v>43.17237590437693</v>
@@ -3427,7 +3427,7 @@
         <v>266.211091414244</v>
       </c>
       <c r="E153" t="n">
-        <v>0</v>
+        <v>1.402437824328837e-54</v>
       </c>
       <c r="F153" t="n">
         <v>44.36851523570733</v>
@@ -3447,7 +3447,7 @@
         <v>273.7536763220941</v>
       </c>
       <c r="E154" t="n">
-        <v>0</v>
+        <v>3.412871734085203e-56</v>
       </c>
       <c r="F154" t="n">
         <v>45.62561272034901</v>
@@ -3467,7 +3467,7 @@
         <v>268.2400487654613</v>
       </c>
       <c r="E155" t="n">
-        <v>0</v>
+        <v>5.162341357507659e-55</v>
       </c>
       <c r="F155" t="n">
         <v>44.70667479424355</v>
@@ -3487,7 +3487,7 @@
         <v>257.9639676858429</v>
       </c>
       <c r="E156" t="n">
-        <v>0</v>
+        <v>8.139508533804684e-53</v>
       </c>
       <c r="F156" t="n">
         <v>42.99399461430715</v>
@@ -3507,7 +3507,7 @@
         <v>244.739964775784</v>
       </c>
       <c r="E157" t="n">
-        <v>0</v>
+        <v>5.45518447387571e-50</v>
       </c>
       <c r="F157" t="n">
         <v>40.78999412929733</v>
@@ -3527,7 +3527,7 @@
         <v>196.5548565773353</v>
       </c>
       <c r="E158" t="n">
-        <v>0</v>
+        <v>1.026526822547485e-39</v>
       </c>
       <c r="F158" t="n">
         <v>32.75914276288921</v>
@@ -3547,7 +3547,7 @@
         <v>153.6076789759173</v>
       </c>
       <c r="E159" t="n">
-        <v>0</v>
+        <v>1.335242421465447e-30</v>
       </c>
       <c r="F159" t="n">
         <v>25.60127982931954</v>
@@ -3567,7 +3567,7 @@
         <v>124.2406656137708</v>
       </c>
       <c r="E160" t="n">
-        <v>0</v>
+        <v>2.093629377278296e-24</v>
       </c>
       <c r="F160" t="n">
         <v>20.70677760229514</v>
@@ -3587,7 +3587,7 @@
         <v>139.7524085854947</v>
       </c>
       <c r="E161" t="n">
-        <v>0</v>
+        <v>1.130335613830883e-27</v>
       </c>
       <c r="F161" t="n">
         <v>23.29206809758245</v>
@@ -3607,7 +3607,7 @@
         <v>87.80281336140835</v>
       </c>
       <c r="E162" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>8.660971006693754e-17</v>
       </c>
       <c r="F162" t="n">
         <v>14.63380222690139</v>
@@ -3627,7 +3627,7 @@
         <v>70.94307937889332</v>
       </c>
       <c r="E163" t="n">
-        <v>2.619016115090744e-13</v>
+        <v>2.618849978918404e-13</v>
       </c>
       <c r="F163" t="n">
         <v>11.82384656314889</v>
@@ -3647,7 +3647,7 @@
         <v>97.36056729569069</v>
       </c>
       <c r="E164" t="n">
-        <v>0</v>
+        <v>8.911185769155002e-19</v>
       </c>
       <c r="F164" t="n">
         <v>16.22676121594845</v>
@@ -3667,7 +3667,7 @@
         <v>120.7793810212902</v>
       </c>
       <c r="E165" t="n">
-        <v>0</v>
+        <v>1.117806837194744e-23</v>
       </c>
       <c r="F165" t="n">
         <v>20.12989683688171</v>
@@ -3687,7 +3687,7 @@
         <v>134.0214171659217</v>
       </c>
       <c r="E166" t="n">
-        <v>0</v>
+        <v>1.827416406709855e-26</v>
       </c>
       <c r="F166" t="n">
         <v>22.33690286098696</v>
@@ -3707,7 +3707,7 @@
         <v>114.1182469895486</v>
       </c>
       <c r="E167" t="n">
-        <v>0</v>
+        <v>2.794970942920654e-22</v>
       </c>
       <c r="F167" t="n">
         <v>19.01970783159144</v>
@@ -3727,7 +3727,7 @@
         <v>147.1960859247723</v>
       </c>
       <c r="E168" t="n">
-        <v>0</v>
+        <v>3.028858399705478e-29</v>
       </c>
       <c r="F168" t="n">
         <v>24.53268098746205</v>
@@ -3747,7 +3747,7 @@
         <v>188.7093493157375</v>
       </c>
       <c r="E169" t="n">
-        <v>0</v>
+        <v>4.786159829647935e-38</v>
       </c>
       <c r="F169" t="n">
         <v>31.45155821928958</v>
@@ -3767,7 +3767,7 @@
         <v>226.6602219754411</v>
       </c>
       <c r="E170" t="n">
-        <v>0</v>
+        <v>3.950778144855654e-46</v>
       </c>
       <c r="F170" t="n">
         <v>37.77670366257352</v>
@@ -3787,7 +3787,7 @@
         <v>225.0540450768999</v>
       </c>
       <c r="E171" t="n">
-        <v>0</v>
+        <v>8.696354633371161e-46</v>
       </c>
       <c r="F171" t="n">
         <v>37.50900751281664</v>
@@ -3807,7 +3807,7 @@
         <v>306.2071662730966</v>
       </c>
       <c r="E172" t="n">
-        <v>0</v>
+        <v>3.824480487321888e-63</v>
       </c>
       <c r="F172" t="n">
         <v>51.03452771218277</v>
@@ -3827,7 +3827,7 @@
         <v>376.0600002205829</v>
       </c>
       <c r="E173" t="n">
-        <v>0</v>
+        <v>3.905279730103851e-78</v>
       </c>
       <c r="F173" t="n">
         <v>62.67666670343049</v>
@@ -3847,7 +3847,7 @@
         <v>496.3638432397078</v>
       </c>
       <c r="E174" t="n">
-        <v>0</v>
+        <v>5.104709031873481e-104</v>
       </c>
       <c r="F174" t="n">
         <v>82.72730720661797</v>
@@ -3867,7 +3867,7 @@
         <v>629.8023530961068</v>
       </c>
       <c r="E175" t="n">
-        <v>0</v>
+        <v>8.674281729891976e-133</v>
       </c>
       <c r="F175" t="n">
         <v>104.9670588493511</v>
@@ -3887,7 +3887,7 @@
         <v>637.8061359584702</v>
       </c>
       <c r="E176" t="n">
-        <v>0</v>
+        <v>1.6261790917474e-134</v>
       </c>
       <c r="F176" t="n">
         <v>106.301022659745</v>
@@ -3907,7 +3907,7 @@
         <v>688.7391646395356</v>
       </c>
       <c r="E177" t="n">
-        <v>0</v>
+        <v>1.650944520662847e-145</v>
       </c>
       <c r="F177" t="n">
         <v>114.7898607732559</v>
@@ -3927,7 +3927,7 @@
         <v>736.2271560329664</v>
       </c>
       <c r="E178" t="n">
-        <v>0</v>
+        <v>9.195970896483282e-156</v>
       </c>
       <c r="F178" t="n">
         <v>122.7045260054944</v>
@@ -3947,7 +3947,7 @@
         <v>670.7326699617818</v>
       </c>
       <c r="E179" t="n">
-        <v>0</v>
+        <v>1.27306386413894e-141</v>
       </c>
       <c r="F179" t="n">
         <v>111.7887783269636</v>
@@ -3967,7 +3967,7 @@
         <v>682.7066994023085</v>
       </c>
       <c r="E180" t="n">
-        <v>0</v>
+        <v>3.311667441476028e-144</v>
       </c>
       <c r="F180" t="n">
         <v>113.7844499003847</v>
@@ -3987,7 +3987,7 @@
         <v>658.3412920952098</v>
       </c>
       <c r="E181" t="n">
-        <v>0</v>
+        <v>6.01804906547136e-139</v>
       </c>
       <c r="F181" t="n">
         <v>109.723548682535</v>
@@ -4007,7 +4007,7 @@
         <v>680.9313902769816</v>
       </c>
       <c r="E182" t="n">
-        <v>0</v>
+        <v>8.003781275526971e-144</v>
       </c>
       <c r="F182" t="n">
         <v>113.4885650461636</v>
@@ -4027,7 +4027,7 @@
         <v>531.2889995129674</v>
       </c>
       <c r="E183" t="n">
-        <v>0</v>
+        <v>1.523705305234752e-111</v>
       </c>
       <c r="F183" t="n">
         <v>88.54816658549457</v>
@@ -4047,7 +4047,7 @@
         <v>470.8661668164298</v>
       </c>
       <c r="E184" t="n">
-        <v>0</v>
+        <v>1.581631419512878e-98</v>
       </c>
       <c r="F184" t="n">
         <v>78.47769446940497</v>
@@ -4067,7 +4067,7 @@
         <v>507.4012547880177</v>
       </c>
       <c r="E185" t="n">
-        <v>0</v>
+        <v>2.139213820747135e-106</v>
       </c>
       <c r="F185" t="n">
         <v>84.56687579800295</v>
@@ -4087,7 +4087,7 @@
         <v>555.7029742228787</v>
       </c>
       <c r="E186" t="n">
-        <v>0</v>
+        <v>8.324417973118276e-117</v>
       </c>
       <c r="F186" t="n">
         <v>92.61716237047978</v>
@@ -4107,7 +4107,7 @@
         <v>525.2853733418769</v>
       </c>
       <c r="E187" t="n">
-        <v>0</v>
+        <v>2.997354955662064e-110</v>
       </c>
       <c r="F187" t="n">
         <v>87.54756222364615</v>
@@ -4127,7 +4127,7 @@
         <v>489.178434626265</v>
       </c>
       <c r="E188" t="n">
-        <v>0</v>
+        <v>1.801558556835378e-102</v>
       </c>
       <c r="F188" t="n">
         <v>81.5297391043775</v>
@@ -4147,7 +4147,7 @@
         <v>459.8069557280335</v>
       </c>
       <c r="E189" t="n">
-        <v>0</v>
+        <v>3.802132887813503e-96</v>
       </c>
       <c r="F189" t="n">
         <v>76.63449262133891</v>
@@ -4167,7 +4167,7 @@
         <v>463.6026357573333</v>
       </c>
       <c r="E190" t="n">
-        <v>0</v>
+        <v>5.793161476141971e-97</v>
       </c>
       <c r="F190" t="n">
         <v>77.26710595955555</v>
@@ -4187,7 +4187,7 @@
         <v>417.2733613750969</v>
       </c>
       <c r="E191" t="n">
-        <v>0</v>
+        <v>5.397035694328472e-87</v>
       </c>
       <c r="F191" t="n">
         <v>69.54556022918281</v>
@@ -4207,7 +4207,7 @@
         <v>331.5053465634159</v>
       </c>
       <c r="E192" t="n">
-        <v>0</v>
+        <v>1.437672168972772e-68</v>
       </c>
       <c r="F192" t="n">
         <v>55.25089109390264</v>
@@ -4227,7 +4227,7 @@
         <v>275.6120544058618</v>
       </c>
       <c r="E193" t="n">
-        <v>0</v>
+        <v>1.365878301864357e-56</v>
       </c>
       <c r="F193" t="n">
         <v>45.93534240097697</v>
@@ -4247,7 +4247,7 @@
         <v>231.4891925453038</v>
       </c>
       <c r="E194" t="n">
-        <v>0</v>
+        <v>3.683290491286057e-47</v>
       </c>
       <c r="F194" t="n">
         <v>38.58153209088396</v>
@@ -4267,7 +4267,7 @@
         <v>192.5238673026379</v>
       </c>
       <c r="E195" t="n">
-        <v>0</v>
+        <v>7.393926137321552e-39</v>
       </c>
       <c r="F195" t="n">
         <v>32.08731121710631</v>
@@ -4287,7 +4287,7 @@
         <v>174.1961425302129</v>
       </c>
       <c r="E196" t="n">
-        <v>0</v>
+        <v>5.790912775159095e-35</v>
       </c>
       <c r="F196" t="n">
         <v>29.03269042170215</v>
@@ -4307,7 +4307,7 @@
         <v>158.4418853842431</v>
       </c>
       <c r="E197" t="n">
-        <v>0</v>
+        <v>1.265886429780072e-31</v>
       </c>
       <c r="F197" t="n">
         <v>26.40698089737385</v>
@@ -4327,7 +4327,7 @@
         <v>163.0606182066948</v>
       </c>
       <c r="E198" t="n">
-        <v>0</v>
+        <v>1.330752690551518e-32</v>
       </c>
       <c r="F198" t="n">
         <v>27.17676970111579</v>
@@ -4347,7 +4347,7 @@
         <v>156.9172940869021</v>
       </c>
       <c r="E199" t="n">
-        <v>0</v>
+        <v>2.661727849211536e-31</v>
       </c>
       <c r="F199" t="n">
         <v>26.15288234781701</v>
@@ -4367,7 +4367,7 @@
         <v>146.414926320037</v>
       </c>
       <c r="E200" t="n">
-        <v>0</v>
+        <v>4.429418842825847e-29</v>
       </c>
       <c r="F200" t="n">
         <v>24.40248772000616</v>
@@ -4387,7 +4387,7 @@
         <v>155.2758434498508</v>
       </c>
       <c r="E201" t="n">
-        <v>0</v>
+        <v>5.923566811872753e-31</v>
       </c>
       <c r="F201" t="n">
         <v>25.8793072416418</v>
@@ -4407,7 +4407,7 @@
         <v>143.7332268109048</v>
       </c>
       <c r="E202" t="n">
-        <v>0</v>
+        <v>1.632432857144634e-28</v>
       </c>
       <c r="F202" t="n">
         <v>23.95553780181747</v>
@@ -4427,7 +4427,7 @@
         <v>135.587776546841</v>
       </c>
       <c r="E203" t="n">
-        <v>0</v>
+        <v>8.543776732995236e-27</v>
       </c>
       <c r="F203" t="n">
         <v>22.59796275780683</v>
@@ -4447,7 +4447,7 @@
         <v>164.7233441524603</v>
       </c>
       <c r="E204" t="n">
-        <v>0</v>
+        <v>5.912152488560828e-33</v>
       </c>
       <c r="F204" t="n">
         <v>27.45389069207672</v>
@@ -4467,7 +4467,7 @@
         <v>163.2836757993366</v>
       </c>
       <c r="E205" t="n">
-        <v>0</v>
+        <v>1.193531349770247e-32</v>
       </c>
       <c r="F205" t="n">
         <v>27.2139459665561</v>
@@ -4487,7 +4487,7 @@
         <v>201.2938900385063</v>
       </c>
       <c r="E206" t="n">
-        <v>0</v>
+        <v>1.006439920093592e-40</v>
       </c>
       <c r="F206" t="n">
         <v>33.54898167308438</v>
@@ -4507,7 +4507,7 @@
         <v>172.6645254786592</v>
       </c>
       <c r="E207" t="n">
-        <v>0</v>
+        <v>1.223914416376133e-34</v>
       </c>
       <c r="F207" t="n">
         <v>28.77742091310986</v>
@@ -4527,7 +4527,7 @@
         <v>167.6861453732945</v>
       </c>
       <c r="E208" t="n">
-        <v>0</v>
+        <v>1.392128409232447e-33</v>
       </c>
       <c r="F208" t="n">
         <v>27.94769089554908</v>
@@ -4547,7 +4547,7 @@
         <v>195.3041297071508</v>
       </c>
       <c r="E209" t="n">
-        <v>0</v>
+        <v>1.894410418719875e-39</v>
       </c>
       <c r="F209" t="n">
         <v>32.55068828452513</v>
@@ -4567,7 +4567,7 @@
         <v>174.2512623534793</v>
       </c>
       <c r="E210" t="n">
-        <v>0</v>
+        <v>5.637019679981443e-35</v>
       </c>
       <c r="F210" t="n">
         <v>29.04187705891322</v>
@@ -4587,7 +4587,7 @@
         <v>172.9370594301291</v>
       </c>
       <c r="E211" t="n">
-        <v>0</v>
+        <v>1.071334535128141e-34</v>
       </c>
       <c r="F211" t="n">
         <v>28.82284323835485</v>
@@ -4607,7 +4607,7 @@
         <v>208.2541183293618</v>
       </c>
       <c r="E212" t="n">
-        <v>0</v>
+        <v>3.316126722435166e-42</v>
       </c>
       <c r="F212" t="n">
         <v>34.7090197215603</v>
@@ -4627,7 +4627,7 @@
         <v>164.4132949896605</v>
       </c>
       <c r="E213" t="n">
-        <v>0</v>
+        <v>6.877892667029959e-33</v>
       </c>
       <c r="F213" t="n">
         <v>27.40221583161009</v>
@@ -4647,7 +4647,7 @@
         <v>210.0696338097764</v>
       </c>
       <c r="E214" t="n">
-        <v>0</v>
+        <v>1.36101910446241e-42</v>
       </c>
       <c r="F214" t="n">
         <v>35.01160563496273</v>
@@ -4667,7 +4667,7 @@
         <v>218.8211641175729</v>
       </c>
       <c r="E215" t="n">
-        <v>0</v>
+        <v>1.856158153227945e-44</v>
       </c>
       <c r="F215" t="n">
         <v>36.47019401959549</v>
@@ -4687,7 +4687,7 @@
         <v>184.2657115020722</v>
       </c>
       <c r="E216" t="n">
-        <v>0</v>
+        <v>4.21148304804757e-37</v>
       </c>
       <c r="F216" t="n">
         <v>30.71095191701204</v>
@@ -4707,7 +4707,7 @@
         <v>153.0265432452188</v>
       </c>
       <c r="E217" t="n">
-        <v>0</v>
+        <v>1.77215929885185e-30</v>
       </c>
       <c r="F217" t="n">
         <v>25.50442387420314</v>
@@ -4727,7 +4727,7 @@
         <v>152.9744876174136</v>
       </c>
       <c r="E218" t="n">
-        <v>0</v>
+        <v>1.817669140621042e-30</v>
       </c>
       <c r="F218" t="n">
         <v>25.4957479362356</v>
@@ -4747,7 +4747,7 @@
         <v>166.1519166142106</v>
       </c>
       <c r="E219" t="n">
-        <v>0</v>
+        <v>2.944047543813647e-33</v>
       </c>
       <c r="F219" t="n">
         <v>27.69198610236843</v>
@@ -4767,7 +4767,7 @@
         <v>149.5220339566676</v>
       </c>
       <c r="E220" t="n">
-        <v>0</v>
+        <v>9.764277617291551e-30</v>
       </c>
       <c r="F220" t="n">
         <v>24.92033899277794</v>
@@ -4787,7 +4787,7 @@
         <v>141.4047995355246</v>
       </c>
       <c r="E221" t="n">
-        <v>0</v>
+        <v>5.063604470471814e-28</v>
       </c>
       <c r="F221" t="n">
         <v>23.5674665892541</v>
@@ -4807,7 +4807,7 @@
         <v>140.1033091321463</v>
       </c>
       <c r="E222" t="n">
-        <v>0</v>
+        <v>9.531415197291934e-28</v>
       </c>
       <c r="F222" t="n">
         <v>23.35055152202438</v>
@@ -4827,7 +4827,7 @@
         <v>151.6487722981688</v>
       </c>
       <c r="E223" t="n">
-        <v>0</v>
+        <v>3.466803943487732e-30</v>
       </c>
       <c r="F223" t="n">
         <v>25.27479538302812</v>
@@ -4847,7 +4847,7 @@
         <v>129.131038541024</v>
       </c>
       <c r="E224" t="n">
-        <v>0</v>
+        <v>1.958724197263415e-25</v>
       </c>
       <c r="F224" t="n">
         <v>21.52183975683733</v>
@@ -4867,7 +4867,7 @@
         <v>134.2639903302555</v>
       </c>
       <c r="E225" t="n">
-        <v>0</v>
+        <v>1.624466302915977e-26</v>
       </c>
       <c r="F225" t="n">
         <v>22.37733172170924</v>
@@ -4887,7 +4887,7 @@
         <v>163.0980942021039</v>
       </c>
       <c r="E226" t="n">
-        <v>0</v>
+        <v>1.306642260387368e-32</v>
       </c>
       <c r="F226" t="n">
         <v>27.18301570035065</v>
@@ -4907,7 +4907,7 @@
         <v>195.7713167699674</v>
       </c>
       <c r="E227" t="n">
-        <v>0</v>
+        <v>1.506883719132319e-39</v>
       </c>
       <c r="F227" t="n">
         <v>32.62855279499457</v>
@@ -4927,7 +4927,7 @@
         <v>215.4449618803311</v>
       </c>
       <c r="E228" t="n">
-        <v>0</v>
+        <v>9.735682496916061e-44</v>
       </c>
       <c r="F228" t="n">
         <v>35.90749364672185</v>
@@ -4947,7 +4947,7 @@
         <v>203.4344130668822</v>
       </c>
       <c r="E229" t="n">
-        <v>0</v>
+        <v>3.524325825532694e-41</v>
       </c>
       <c r="F229" t="n">
         <v>33.90573551114704</v>
